--- a/Bubble-chambers/Foglio Lavoro Bolle .xlsx
+++ b/Bubble-chambers/Foglio Lavoro Bolle .xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcocosta/Documents/UNIVERSITA/DIDATTICA Marco/Didattica 2022/Laboratorio Nucl e Sub II/Bolle/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giogi/Documents/LabFNS2/Bubble-chambers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C9D5F8-2A5D-C448-B0F0-3CFA74D00310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60EC1FF-A341-9C46-B7CF-EACFD744D444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16340" activeTab="1" xr2:uid="{02BEFC14-27FA-2546-B417-EAD54D17AC79}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{02BEFC14-27FA-2546-B417-EAD54D17AC79}"/>
   </bookViews>
   <sheets>
     <sheet name="Sez Urto" sheetId="1" r:id="rId1"/>
     <sheet name="Decad K" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="112">
   <si>
     <t>N.FOTOGRAMMA</t>
   </si>
@@ -99,9 +99,6 @@
     <t>DATI</t>
   </si>
   <si>
-    <t>A = 2 gr mol-1</t>
-  </si>
-  <si>
     <t>Coordinate deei marker fiduciali</t>
   </si>
   <si>
@@ -148,13 +145,241 @@
   </si>
   <si>
     <t>Distanza START-STOP di riferimento</t>
+  </si>
+  <si>
+    <t>001-1</t>
+  </si>
+  <si>
+    <t>001-2</t>
+  </si>
+  <si>
+    <t>d78meas,min</t>
+  </si>
+  <si>
+    <t>d78meas,max</t>
+  </si>
+  <si>
+    <t>002-1</t>
+  </si>
+  <si>
+    <t>d78min</t>
+  </si>
+  <si>
+    <t>d78max</t>
+  </si>
+  <si>
+    <t>002-2</t>
+  </si>
+  <si>
+    <t>dSTART-STOPmeas</t>
+  </si>
+  <si>
+    <t>NOTE: values in cm</t>
+  </si>
+  <si>
+    <t>003-1</t>
+  </si>
+  <si>
+    <t>003-2</t>
+  </si>
+  <si>
+    <t>A = 2 g mol-1</t>
+  </si>
+  <si>
+    <t>004-1</t>
+  </si>
+  <si>
+    <t>sigma = A / (rho Na L) log(N0/N(L))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N0 tot = </t>
+  </si>
+  <si>
+    <t>N(L) tot =</t>
+  </si>
+  <si>
+    <t>004-2</t>
+  </si>
+  <si>
+    <t>cm^2</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>005-1</t>
+  </si>
+  <si>
+    <t>partial derivatives</t>
+  </si>
+  <si>
+    <t>ds/dL</t>
+  </si>
+  <si>
+    <t>b/cm</t>
+  </si>
+  <si>
+    <t>ds/dN0</t>
+  </si>
+  <si>
+    <t>ds/dNL</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>005-2</t>
+  </si>
+  <si>
+    <t>006-1</t>
+  </si>
+  <si>
+    <t>006-2</t>
+  </si>
+  <si>
+    <t>007-1</t>
+  </si>
+  <si>
+    <t>007-2</t>
+  </si>
+  <si>
+    <t>Errore</t>
+  </si>
+  <si>
+    <t>008-1</t>
+  </si>
+  <si>
+    <t>008-2</t>
+  </si>
+  <si>
+    <t>009-1</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>009-2</t>
+  </si>
+  <si>
+    <t>010-1</t>
+  </si>
+  <si>
+    <t>010-2</t>
+  </si>
+  <si>
+    <t>011-1</t>
+  </si>
+  <si>
+    <t>011-2</t>
+  </si>
+  <si>
+    <t>012-1</t>
+  </si>
+  <si>
+    <t>012-2</t>
+  </si>
+  <si>
+    <t>013-1</t>
+  </si>
+  <si>
+    <t>I43 è con la il valore delle slide</t>
+  </si>
+  <si>
+    <t>il prof ha dwtt che c'è un errore del 11% a causa del misunderstandin su qyelle decadute in 1</t>
+  </si>
+  <si>
+    <t>I blu sono vertici sospetti a casa</t>
+  </si>
+  <si>
+    <t>013-2</t>
+  </si>
+  <si>
+    <t>arancioni sono +-1</t>
+  </si>
+  <si>
+    <t>014-1</t>
+  </si>
+  <si>
+    <t>014-2</t>
+  </si>
+  <si>
+    <t>015-1</t>
+  </si>
+  <si>
+    <t>015-2</t>
+  </si>
+  <si>
+    <t>016-1</t>
+  </si>
+  <si>
+    <t>016-2</t>
+  </si>
+  <si>
+    <t>017-1</t>
+  </si>
+  <si>
+    <t>017-2</t>
+  </si>
+  <si>
+    <t>018-1</t>
+  </si>
+  <si>
+    <t>018-2</t>
+  </si>
+  <si>
+    <t>019-1</t>
+  </si>
+  <si>
+    <t>019-2</t>
+  </si>
+  <si>
+    <t>020-1</t>
+  </si>
+  <si>
+    <t>020-2</t>
+  </si>
+  <si>
+    <t>Differenza sopravvissuti-mort</t>
+  </si>
+  <si>
+    <t>021-1</t>
+  </si>
+  <si>
+    <t>021-2</t>
+  </si>
+  <si>
+    <t>022-1</t>
+  </si>
+  <si>
+    <t>022-2</t>
+  </si>
+  <si>
+    <t>023-1</t>
+  </si>
+  <si>
+    <t>023-2</t>
+  </si>
+  <si>
+    <t>024-1</t>
+  </si>
+  <si>
+    <t>024-2</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>025-1</t>
+  </si>
+  <si>
+    <t>025-2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -210,8 +435,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -221,6 +452,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -237,17 +480,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -615,10 +865,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2605DDD4-F087-4B4A-A959-3CF55C441A72}">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:M88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -636,7 +886,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -644,7 +894,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -676,229 +926,314 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B17" s="6">
+        <v>-5.1700000000000003E-2</v>
+      </c>
+      <c r="C17" s="6">
+        <v>8.5736000000000008</v>
+      </c>
+      <c r="D17" s="6">
+        <v>-8.7030999999999992</v>
+      </c>
+      <c r="E17" s="6">
+        <v>-7.4099999999999999E-2</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0</v>
+      </c>
+      <c r="H17" s="6">
+        <v>-2.9499999999999998E-2</v>
+      </c>
+      <c r="I17" s="6">
+        <v>-4.99E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="6">
+        <v>29.970300000000002</v>
+      </c>
+      <c r="C18" s="6">
+        <v>14.975199999999999</v>
+      </c>
+      <c r="D18" s="6">
+        <v>14.985900000000001</v>
+      </c>
+      <c r="E18" s="6">
+        <v>-5.5999999999999999E-3</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0</v>
+      </c>
+      <c r="H18" s="6">
+        <v>23.232700000000001</v>
+      </c>
+      <c r="I18" s="6">
+        <v>-4.9466000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="D22" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="E22" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="F22" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="G22" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="H22" t="s">
         <v>28</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="I22" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
+    </row>
+    <row r="23" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="6">
+        <v>-2.9999999999999997E-4</v>
+      </c>
+      <c r="C23" s="6">
+        <v>8.6404999999999994</v>
+      </c>
+      <c r="D23" s="6">
+        <v>-8.641</v>
+      </c>
+      <c r="E23" s="6">
+        <v>-2.9999999999999997E-4</v>
+      </c>
+      <c r="F23" s="6">
+        <v>8.6417999999999999</v>
+      </c>
+      <c r="G23" s="6">
+        <v>-8.6408000000000005</v>
+      </c>
+      <c r="H23" s="6">
+        <v>-1.6500000000000001E-2</v>
+      </c>
+      <c r="I23" s="6">
+        <v>-1.3899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="7">
-        <v>-5.1700000000000003E-2</v>
-      </c>
-      <c r="C17" s="7">
-        <v>8.5736000000000008</v>
-      </c>
-      <c r="D17" s="7">
-        <v>-8.7030999999999992</v>
-      </c>
-      <c r="E17" s="7">
-        <v>-7.4099999999999999E-2</v>
-      </c>
-      <c r="F17" s="7">
-        <v>0</v>
-      </c>
-      <c r="G17" s="7">
-        <v>0</v>
-      </c>
-      <c r="H17" s="7">
-        <v>-2.9499999999999998E-2</v>
-      </c>
-      <c r="I17" s="7">
-        <v>-4.99E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="7">
+      <c r="B24" s="6">
         <v>29.970300000000002</v>
       </c>
-      <c r="C18" s="7">
-        <v>14.975199999999999</v>
-      </c>
-      <c r="D18" s="7">
-        <v>14.985900000000001</v>
-      </c>
-      <c r="E18" s="7">
-        <v>-5.5999999999999999E-3</v>
-      </c>
-      <c r="F18" s="7">
-        <v>0</v>
-      </c>
-      <c r="G18" s="7">
-        <v>0</v>
-      </c>
-      <c r="H18" s="7">
-        <v>23.232700000000001</v>
-      </c>
-      <c r="I18" s="7">
-        <v>-4.9466000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" t="s">
-        <v>28</v>
-      </c>
-      <c r="H22" t="s">
-        <v>29</v>
-      </c>
-      <c r="I22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="7">
-        <v>-2.9999999999999997E-4</v>
-      </c>
-      <c r="C23" s="7">
-        <v>8.6404999999999994</v>
-      </c>
-      <c r="D23" s="7">
-        <v>-8.641</v>
-      </c>
-      <c r="E23" s="7">
-        <v>-2.9999999999999997E-4</v>
-      </c>
-      <c r="F23" s="7">
-        <v>8.6417999999999999</v>
-      </c>
-      <c r="G23" s="7">
-        <v>-8.6408000000000005</v>
-      </c>
-      <c r="H23" s="7">
-        <v>-1.6500000000000001E-2</v>
-      </c>
-      <c r="I23" s="7">
-        <v>-1.3899999999999999E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="7">
-        <v>29.970300000000002</v>
-      </c>
-      <c r="C24" s="7">
+      <c r="C24" s="6">
         <v>14.9801</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="6">
         <v>14.9838</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="6">
         <v>-4.3E-3</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="6">
         <v>-14.9252</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="6">
         <v>-14.9831</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="6">
         <v>23.238299999999999</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="6">
         <v>-4.9396000000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G33" s="3" t="s">
+      <c r="E26" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <f>I27/I29</f>
+        <v>1.6502294351246898</v>
+      </c>
+      <c r="C27">
+        <f>I28/I30</f>
+        <v>2.1540634437335209</v>
+      </c>
+      <c r="D27">
+        <f>(C27+B27)/2</f>
+        <v>1.9021464394291052</v>
+      </c>
+      <c r="E27">
+        <f>I31/D27</f>
+        <v>39.429140914360879</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I27" s="9">
+        <v>46.5</v>
+      </c>
+      <c r="K27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28">
+        <v>0.2</v>
+      </c>
+      <c r="F28" t="s">
+        <v>72</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I28">
+        <v>60.7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H29" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I29">
+        <f>H24-I24</f>
+        <v>28.177900000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H30" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I30">
+        <f>H18-I18</f>
+        <v>28.179300000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H31" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I31">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H33" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G34" s="9" t="s">
+    <row r="34" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H34" s="8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G35" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G36" s="9" t="s">
+      <c r="J34" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="K34" s="10">
+        <v>2.0390000000000001E-20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H35" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J35" s="14">
+        <v>2.0129999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H36" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G37" s="9" t="s">
+      <c r="J36" s="8">
+        <v>0.14099999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H37" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J37" s="10">
+        <v>6.0220000000000003E+23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -914,16 +1249,1158 @@
       <c r="E38" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G42" s="4" t="s">
+      <c r="F38" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39">
+        <v>6</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>6</v>
+      </c>
+      <c r="F39">
+        <f>B39-(D39+C39+E39)</f>
+        <v>0</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40">
+        <v>7</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>4</v>
+      </c>
+      <c r="F40">
+        <f t="shared" ref="F40:F88" si="0">B40-(D40+C40+E40)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>12</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>9</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>4</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H42" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J42" s="4" t="s">
+      <c r="K42" t="s">
+        <v>68</v>
+      </c>
+      <c r="L42" s="4" t="s">
         <v>12</v>
       </c>
     </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43">
+        <v>9</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>5</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H43" s="11">
+        <f>J35/(J36*J37*E27)*LN(I48/I49)</f>
+        <v>2.296442691919403E-25</v>
+      </c>
+      <c r="I43" t="s">
+        <v>54</v>
+      </c>
+      <c r="J43" s="11">
+        <f>(K34/E27)*LN(I48/I49)</f>
+        <v>1.9750992620017236E-22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44">
+        <v>9</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>6</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H44" s="11">
+        <f>H43*1E+24</f>
+        <v>0.22964426919194031</v>
+      </c>
+      <c r="I44" t="s">
+        <v>55</v>
+      </c>
+      <c r="K44">
+        <f>SQRT(POWER(I54*E28,2) + POWER(I55*SQRT(I48),2) + POWER(I56*SQRT(I49),2))</f>
+        <v>4.8569578786369791E-2</v>
+      </c>
+      <c r="L44" s="16">
+        <f>K44/H44*100</f>
+        <v>21.149919811747868</v>
+      </c>
+      <c r="M44" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45">
+        <v>5</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>4</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46">
+        <v>5</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>4</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47">
+        <v>14</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>10</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48">
+        <v>6</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>4</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="s">
+        <v>51</v>
+      </c>
+      <c r="I48">
+        <f>SUM(B39:B110)</f>
+        <v>378</v>
+      </c>
+      <c r="K48">
+        <f>I54*E28</f>
+        <v>1.1648454106099953E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>3</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="s">
+        <v>52</v>
+      </c>
+      <c r="I49">
+        <f>SUM(E39:E110)</f>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>65</v>
+      </c>
+      <c r="B50">
+        <v>9</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>5</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>66</v>
+      </c>
+      <c r="B51">
+        <v>5</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>4</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>67</v>
+      </c>
+      <c r="B52">
+        <v>6</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>3</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>69</v>
+      </c>
+      <c r="B53">
+        <v>7</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>6</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>70</v>
+      </c>
+      <c r="B54">
+        <v>5</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>4</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="s">
+        <v>58</v>
+      </c>
+      <c r="I54" s="11">
+        <f>H44/E27</f>
+        <v>5.8242270530499763E-3</v>
+      </c>
+      <c r="J54" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>71</v>
+      </c>
+      <c r="B55">
+        <v>8</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>7</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="s">
+        <v>60</v>
+      </c>
+      <c r="I55" s="11">
+        <f>J35/(J36*J37*E27)/I48*1E+24</f>
+        <v>1.5906506104842735E-3</v>
+      </c>
+      <c r="J55" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>73</v>
+      </c>
+      <c r="B56">
+        <v>10</v>
+      </c>
+      <c r="C56">
+        <v>3</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>6</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="s">
+        <v>61</v>
+      </c>
+      <c r="I56" s="11">
+        <f>-J35/(J36*J37*E27*I49)*1E+24</f>
+        <v>-2.3304881037327732E-3</v>
+      </c>
+      <c r="J56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>74</v>
+      </c>
+      <c r="B57">
+        <v>4</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>3</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>75</v>
+      </c>
+      <c r="B58">
+        <v>10</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>7</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>76</v>
+      </c>
+      <c r="B59">
+        <v>8</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>6</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>77</v>
+      </c>
+      <c r="B60">
+        <v>9</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60">
+        <v>6</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>78</v>
+      </c>
+      <c r="B61">
+        <v>6</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>5</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>79</v>
+      </c>
+      <c r="B62">
+        <v>10</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>10</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B63">
+        <v>9</v>
+      </c>
+      <c r="E63" s="12"/>
+      <c r="F63">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>84</v>
+      </c>
+      <c r="B64">
+        <v>11</v>
+      </c>
+      <c r="C64">
+        <v>4</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64" s="13">
+        <v>6</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>86</v>
+      </c>
+      <c r="B65">
+        <v>7</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>6</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>87</v>
+      </c>
+      <c r="B66">
+        <v>5</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66">
+        <v>2</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>88</v>
+      </c>
+      <c r="B67">
+        <v>8</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>6</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>89</v>
+      </c>
+      <c r="B68">
+        <v>7</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>6</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>90</v>
+      </c>
+      <c r="B69">
+        <v>7</v>
+      </c>
+      <c r="C69">
+        <v>2</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>5</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>91</v>
+      </c>
+      <c r="B70">
+        <v>8</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>7</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>92</v>
+      </c>
+      <c r="B71">
+        <v>8</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>6</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>93</v>
+      </c>
+      <c r="B72">
+        <v>5</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="E72">
+        <v>3</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>94</v>
+      </c>
+      <c r="B73">
+        <v>7</v>
+      </c>
+      <c r="C73">
+        <v>2</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>5</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>95</v>
+      </c>
+      <c r="B74">
+        <v>7</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+      <c r="E74">
+        <v>4</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>96</v>
+      </c>
+      <c r="B75">
+        <v>13</v>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+      <c r="D75">
+        <v>4</v>
+      </c>
+      <c r="E75">
+        <v>6</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>97</v>
+      </c>
+      <c r="B76">
+        <v>9</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+      <c r="E76">
+        <v>7</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>98</v>
+      </c>
+      <c r="B77">
+        <v>6</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>5</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>99</v>
+      </c>
+      <c r="B78">
+        <v>8</v>
+      </c>
+      <c r="C78">
+        <v>3</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>4</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>101</v>
+      </c>
+      <c r="B79">
+        <v>7</v>
+      </c>
+      <c r="C79">
+        <v>3</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>4</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>102</v>
+      </c>
+      <c r="B80">
+        <v>5</v>
+      </c>
+      <c r="C80">
+        <v>2</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>2</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B81">
+        <v>7</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <v>5</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>104</v>
+      </c>
+      <c r="B82">
+        <v>6</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>5</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>105</v>
+      </c>
+      <c r="B83">
+        <v>7</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <v>5</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>106</v>
+      </c>
+      <c r="B84">
+        <v>10</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>3</v>
+      </c>
+      <c r="E84">
+        <v>6</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>107</v>
+      </c>
+      <c r="B85">
+        <v>9</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85">
+        <v>8</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>108</v>
+      </c>
+      <c r="B86">
+        <v>6</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>2</v>
+      </c>
+      <c r="E86">
+        <v>4</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>110</v>
+      </c>
+      <c r="B87">
+        <v>10</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>2</v>
+      </c>
+      <c r="E87">
+        <v>7</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>111</v>
+      </c>
+      <c r="B88">
+        <v>6</v>
+      </c>
+      <c r="C88">
+        <v>3</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>3</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -933,8 +2410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B14B55B-8003-8B4B-8DBF-93AEA3F4FB22}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -960,11 +2437,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D14" s="9" t="s">
+    <row r="14" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D14" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="8" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Bubble-chambers/Foglio Lavoro Bolle .xlsx
+++ b/Bubble-chambers/Foglio Lavoro Bolle .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giogi/Documents/LabFNS2/Bubble-chambers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60EC1FF-A341-9C46-B7CF-EACFD744D444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146C2DB7-D0A5-9946-AA76-45D2DC008F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{02BEFC14-27FA-2546-B417-EAD54D17AC79}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{02BEFC14-27FA-2546-B417-EAD54D17AC79}"/>
   </bookViews>
   <sheets>
     <sheet name="Sez Urto" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="121">
   <si>
     <t>N.FOTOGRAMMA</t>
   </si>
@@ -373,13 +373,40 @@
   </si>
   <si>
     <t>025-2</t>
+  </si>
+  <si>
+    <t>Total decays</t>
+  </si>
+  <si>
+    <t>3pi decays</t>
+  </si>
+  <si>
+    <t>PDG value</t>
+  </si>
+  <si>
+    <t>Errore BR</t>
+  </si>
+  <si>
+    <t>±</t>
+  </si>
+  <si>
+    <t>2 (sistematico)</t>
+  </si>
+  <si>
+    <t>1 (sistematico)</t>
+  </si>
+  <si>
+    <t>Test Z</t>
+  </si>
+  <si>
+    <t>uguale a 017-2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -436,10 +463,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="5">
@@ -480,7 +520,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -490,6 +530,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -498,6 +539,8 @@
     <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -867,7 +910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2605DDD4-F087-4B4A-A959-3CF55C441A72}">
   <dimension ref="A1:M88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+    <sheetView topLeftCell="A24" workbookViewId="0">
       <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
@@ -1143,7 +1186,7 @@
       <c r="H27" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="I27" s="9">
+      <c r="I27" s="10">
         <v>46.5</v>
       </c>
       <c r="K27" t="s">
@@ -1205,7 +1248,7 @@
       <c r="J34" s="8">
         <v>1.6</v>
       </c>
-      <c r="K34" s="10">
+      <c r="K34" s="11">
         <v>2.0390000000000001E-20</v>
       </c>
     </row>
@@ -1213,7 +1256,7 @@
       <c r="H35" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="J35" s="14">
+      <c r="J35" s="15">
         <v>2.0129999999999999</v>
       </c>
     </row>
@@ -1229,7 +1272,7 @@
       <c r="H37" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J37" s="10">
+      <c r="J37" s="11">
         <v>6.0220000000000003E+23</v>
       </c>
     </row>
@@ -1369,14 +1412,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H43" s="11">
+      <c r="H43" s="12">
         <f>J35/(J36*J37*E27)*LN(I48/I49)</f>
         <v>2.296442691919403E-25</v>
       </c>
       <c r="I43" t="s">
         <v>54</v>
       </c>
-      <c r="J43" s="11">
+      <c r="J43" s="12">
         <f>(K34/E27)*LN(I48/I49)</f>
         <v>1.9750992620017236E-22</v>
       </c>
@@ -1401,7 +1444,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H44" s="11">
+      <c r="H44" s="12">
         <f>H43*1E+24</f>
         <v>0.22964426919194031</v>
       </c>
@@ -1412,7 +1455,7 @@
         <f>SQRT(POWER(I54*E28,2) + POWER(I55*SQRT(I48),2) + POWER(I56*SQRT(I49),2))</f>
         <v>4.8569578786369791E-2</v>
       </c>
-      <c r="L44" s="16">
+      <c r="L44" s="17">
         <f>K44/H44*100</f>
         <v>21.149919811747868</v>
       </c>
@@ -1653,7 +1696,7 @@
       <c r="H54" t="s">
         <v>58</v>
       </c>
-      <c r="I54" s="11">
+      <c r="I54" s="12">
         <f>H44/E27</f>
         <v>5.8242270530499763E-3</v>
       </c>
@@ -1684,7 +1727,7 @@
       <c r="H55" t="s">
         <v>60</v>
       </c>
-      <c r="I55" s="11">
+      <c r="I55" s="12">
         <f>J35/(J36*J37*E27)/I48*1E+24</f>
         <v>1.5906506104842735E-3</v>
       </c>
@@ -1715,7 +1758,7 @@
       <c r="H56" t="s">
         <v>61</v>
       </c>
-      <c r="I56" s="11">
+      <c r="I56" s="12">
         <f>-J35/(J36*J37*E27*I49)*1E+24</f>
         <v>-2.3304881037327732E-3</v>
       </c>
@@ -1850,13 +1893,13 @@
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" s="12" t="s">
+      <c r="A63" s="13" t="s">
         <v>80</v>
       </c>
       <c r="B63">
         <v>9</v>
       </c>
-      <c r="E63" s="12"/>
+      <c r="E63" s="13"/>
       <c r="F63">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1875,7 +1918,7 @@
       <c r="D64">
         <v>1</v>
       </c>
-      <c r="E64" s="13">
+      <c r="E64" s="14">
         <v>6</v>
       </c>
       <c r="F64">
@@ -2232,7 +2275,7 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="15" t="s">
+      <c r="A81" s="16" t="s">
         <v>103</v>
       </c>
       <c r="B81">
@@ -2400,7 +2443,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2408,25 +2451,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B14B55B-8003-8B4B-8DBF-93AEA3F4FB22}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.1640625" customWidth="1"/>
     <col min="2" max="2" width="28.1640625" customWidth="1"/>
-    <col min="3" max="3" width="25.1640625" customWidth="1"/>
+    <col min="3" max="4" width="25.1640625" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="2.33203125" customWidth="1"/>
+    <col min="12" max="12" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2436,13 +2485,625 @@
       <c r="C3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D14" s="8" t="s">
+      <c r="F3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <f>SUM(B4:B59)</f>
+        <v>621</v>
+      </c>
+      <c r="G4">
+        <f>SUM(C4:C59)</f>
+        <v>40</v>
+      </c>
+      <c r="I4" s="18">
+        <v>5.5830000000000002</v>
+      </c>
+      <c r="J4" t="s">
+        <v>116</v>
+      </c>
+      <c r="K4">
+        <v>2.4E-2</v>
+      </c>
+      <c r="L4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7">
         <v>8</v>
       </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="10">
+        <v>12</v>
+      </c>
+      <c r="C14" s="10">
+        <v>0</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>8</v>
+      </c>
       <c r="F14" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="H14" s="8" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="10">
+        <v>18</v>
+      </c>
+      <c r="C15" s="10">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E15">
+        <f>G4/F4</f>
+        <v>6.4412238325281798E-2</v>
+      </c>
+      <c r="F15">
+        <f>SQRT(E15*(1-E15)/F4)</f>
+        <v>9.8510077694010656E-3</v>
+      </c>
+      <c r="H15">
+        <f>F15/E15*100</f>
+        <v>15.293689561995155</v>
+      </c>
+      <c r="I15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="10">
+        <v>18</v>
+      </c>
+      <c r="C16" s="10">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16">
+        <f>E15*100</f>
+        <v>6.4412238325281796</v>
+      </c>
+      <c r="F16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="10">
+        <v>20</v>
+      </c>
+      <c r="C17" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="10">
+        <v>16</v>
+      </c>
+      <c r="C18" s="10">
+        <v>2</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="10">
+        <v>13</v>
+      </c>
+      <c r="C19" s="10">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <f>ABS(E15*100-I4)/SQRT(K4^2+(F15*100)^2)</f>
+        <v>0.87094565784975497</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="10">
+        <v>7</v>
+      </c>
+      <c r="C20" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="10">
+        <v>14</v>
+      </c>
+      <c r="C21" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="10">
+        <v>10</v>
+      </c>
+      <c r="C22" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="10">
+        <v>3</v>
+      </c>
+      <c r="C23" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="10">
+        <v>11</v>
+      </c>
+      <c r="C24" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="10">
+        <v>10</v>
+      </c>
+      <c r="C25" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="10">
+        <v>6</v>
+      </c>
+      <c r="C26" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="10">
+        <v>10</v>
+      </c>
+      <c r="C27" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" s="10">
+        <v>16</v>
+      </c>
+      <c r="C28" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="10">
+        <v>9</v>
+      </c>
+      <c r="C29" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30" s="10">
+        <v>12</v>
+      </c>
+      <c r="C30" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" s="10">
+        <v>13</v>
+      </c>
+      <c r="C31" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" s="10">
+        <v>15</v>
+      </c>
+      <c r="C32" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" s="10">
+        <v>15</v>
+      </c>
+      <c r="C33" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" s="10">
+        <v>16</v>
+      </c>
+      <c r="C34" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B35" s="10">
+        <v>10</v>
+      </c>
+      <c r="C35" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="B36" s="10">
+        <v>11</v>
+      </c>
+      <c r="C36" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="B37" s="10">
+        <v>23</v>
+      </c>
+      <c r="C37" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B39">
+        <v>15</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="B40">
+        <v>16</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B41">
+        <v>13</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B42">
+        <v>17</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="B43">
+        <v>10</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B44">
+        <v>15</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B45">
+        <v>15</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B46">
+        <v>16</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="B47">
+        <v>8</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="B48">
+        <v>18</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="B49">
+        <v>12</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B50">
+        <v>12</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B51">
+        <v>11</v>
+      </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B52">
+        <v>16</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="B53">
+        <v>16</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Bubble-chambers/Foglio Lavoro Bolle .xlsx
+++ b/Bubble-chambers/Foglio Lavoro Bolle .xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\root\LabFNS2\Bubble-chambers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0552799D-EE59-4849-8B4C-FB86B48425B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A79E6A-A827-4CBA-9A3D-38FBEA056BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sez Urto" sheetId="1" r:id="rId1"/>
     <sheet name="Decad K" sheetId="2" r:id="rId2"/>
+    <sheet name="Fabrizio syst" sheetId="3" r:id="rId3"/>
+    <sheet name="Roberta syst" sheetId="4" r:id="rId4"/>
+    <sheet name="Giorgio syst" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="169">
   <si>
     <t>MISURA DELLA SEZIONE D'URTO ANTIPROTONI-DEUTERIO P_lab=1,6 GeV/c</t>
   </si>
@@ -207,6 +210,9 @@
     <t xml:space="preserve">N0 tot = </t>
   </si>
   <si>
+    <t>lab+Fabrizio+Roberta</t>
+  </si>
+  <si>
     <t>006-1</t>
   </si>
   <si>
@@ -402,6 +408,60 @@
     <t>031-2</t>
   </si>
   <si>
+    <t>ROBERTA</t>
+  </si>
+  <si>
+    <t>fotogramma</t>
+  </si>
+  <si>
+    <t>anti-p entranti</t>
+  </si>
+  <si>
+    <t>int su p (pari)</t>
+  </si>
+  <si>
+    <t>int su n (dispari)</t>
+  </si>
+  <si>
+    <t>032-1</t>
+  </si>
+  <si>
+    <t>032-2</t>
+  </si>
+  <si>
+    <t>sez d'urto tot</t>
+  </si>
+  <si>
+    <t>033-1</t>
+  </si>
+  <si>
+    <t>033-2</t>
+  </si>
+  <si>
+    <t>034-1</t>
+  </si>
+  <si>
+    <t>034-2</t>
+  </si>
+  <si>
+    <t>035-1</t>
+  </si>
+  <si>
+    <t>035-2</t>
+  </si>
+  <si>
+    <t>036-1</t>
+  </si>
+  <si>
+    <t>036-2</t>
+  </si>
+  <si>
+    <t>037-1</t>
+  </si>
+  <si>
+    <t>037-2</t>
+  </si>
+  <si>
     <t>Branching Ratio Decadimento del k+ in 3 pioni carichi</t>
   </si>
   <si>
@@ -447,61 +507,46 @@
     <t>uguale a 017-2</t>
   </si>
   <si>
-    <t>ROBERTA</t>
-  </si>
-  <si>
-    <t>int su p (pari)</t>
-  </si>
-  <si>
-    <t>int su n (dispari)</t>
-  </si>
-  <si>
-    <t>fotogramma</t>
-  </si>
-  <si>
-    <t>anti-p entranti</t>
-  </si>
-  <si>
-    <t>032-1</t>
-  </si>
-  <si>
-    <t>032-2</t>
-  </si>
-  <si>
-    <t>033-1</t>
-  </si>
-  <si>
-    <t>033-2</t>
-  </si>
-  <si>
-    <t>034-1</t>
-  </si>
-  <si>
-    <t>034-2</t>
-  </si>
-  <si>
-    <t>035-1</t>
-  </si>
-  <si>
-    <t>035-2</t>
-  </si>
-  <si>
-    <t>036-1</t>
-  </si>
-  <si>
-    <t>036-2</t>
-  </si>
-  <si>
-    <t>037-1</t>
-  </si>
-  <si>
-    <t>037-2</t>
-  </si>
-  <si>
-    <t>sez d'urto tot</t>
-  </si>
-  <si>
-    <t>lab+Fabrizio+Roberta</t>
+    <t>044-1</t>
+  </si>
+  <si>
+    <t>044-2</t>
+  </si>
+  <si>
+    <t>045-1</t>
+  </si>
+  <si>
+    <t>045-2</t>
+  </si>
+  <si>
+    <t>046-1</t>
+  </si>
+  <si>
+    <t>046-2</t>
+  </si>
+  <si>
+    <t>047-1</t>
+  </si>
+  <si>
+    <t>048-1</t>
+  </si>
+  <si>
+    <t>048-2</t>
+  </si>
+  <si>
+    <t>049-1</t>
+  </si>
+  <si>
+    <t>049-2</t>
+  </si>
+  <si>
+    <t>050-1</t>
+  </si>
+  <si>
+    <t>050-2</t>
+  </si>
+  <si>
+    <t>047-2</t>
   </si>
 </sst>
 </file>
@@ -563,6 +608,14 @@
       <charset val="1"/>
     </font>
     <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
@@ -584,16 +637,8 @@
       <name val="Calibri (Body)"/>
       <charset val="1"/>
     </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -616,12 +661,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF8CBAD"/>
         <bgColor rgb="FFC0C0C0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -717,7 +756,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -733,6 +772,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -744,14 +784,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -844,11 +882,11 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>1308240</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>178200</xdr:rowOff>
+      <xdr:rowOff>178920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1554840</xdr:colOff>
+      <xdr:colOff>1554120</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>76320</xdr:rowOff>
     </xdr:to>
@@ -865,13 +903,13 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect l="18489" t="162" r="29414" b="-613"/>
+        <a:srcRect l="18479" t="162" r="29405" b="-613"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="6624360" y="-2426760"/>
-          <a:ext cx="2298240" cy="7909200"/>
+          <a:off x="6676920" y="-2491200"/>
+          <a:ext cx="2183400" cy="7905240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -881,6 +919,82 @@
         </a:ln>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>480960</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>117000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Shape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7296480" cy="3137040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="729FCF"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>NON SI GUARDAAAAAAAAAAA</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1183,9 +1297,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M211"/>
+  <dimension ref="A1:M126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C79" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C103" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J60" sqref="J60"/>
     </sheetView>
   </sheetViews>
@@ -1833,12 +1947,12 @@
         <v>1.1502366651906599E-3</v>
       </c>
       <c r="M48" t="s">
-        <v>154</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B49">
         <v>5</v>
@@ -1857,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I49">
         <f>SUM(E39:E126)</f>
@@ -1866,7 +1980,7 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B50">
         <v>9</v>
@@ -1887,7 +2001,7 @@
     </row>
     <row r="51" spans="1:10">
       <c r="A51" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B51">
         <v>5</v>
@@ -1908,7 +2022,7 @@
     </row>
     <row r="52" spans="1:10">
       <c r="A52" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B52">
         <v>6</v>
@@ -1929,7 +2043,7 @@
     </row>
     <row r="53" spans="1:10">
       <c r="A53" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B53">
         <v>7</v>
@@ -1948,12 +2062,12 @@
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B54">
         <v>5</v>
@@ -1972,19 +2086,19 @@
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I54" s="11">
         <f>H44/$E$27</f>
         <v>5.7511833259532999E-3</v>
       </c>
       <c r="J54" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B55">
         <v>8</v>
@@ -2003,7 +2117,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I55" s="11">
         <f>$J$35/($J$36*$J$37*$E$27)/I48*1E+24</f>
@@ -2015,7 +2129,7 @@
     </row>
     <row r="56" spans="1:10">
       <c r="A56" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B56">
         <v>10</v>
@@ -2034,7 +2148,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I56" s="11">
         <f>-$J$35/($J$36*$J$37*$E$27*I49)*1E+24</f>
@@ -2046,7 +2160,7 @@
     </row>
     <row r="57" spans="1:10">
       <c r="A57" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B57">
         <v>4</v>
@@ -2067,7 +2181,7 @@
     </row>
     <row r="58" spans="1:10">
       <c r="A58" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B58">
         <v>10</v>
@@ -2088,7 +2202,7 @@
     </row>
     <row r="59" spans="1:10">
       <c r="A59" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B59">
         <v>8</v>
@@ -2109,7 +2223,7 @@
     </row>
     <row r="60" spans="1:10">
       <c r="A60" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B60">
         <v>9</v>
@@ -2127,11 +2241,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J60" s="31"/>
+      <c r="J60" s="13"/>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B61">
         <v>6</v>
@@ -2152,7 +2266,7 @@
     </row>
     <row r="62" spans="1:10">
       <c r="A62" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B62">
         <v>10</v>
@@ -2172,13 +2286,13 @@
       </c>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63" s="13" t="s">
-        <v>76</v>
+      <c r="A63" s="14" t="s">
+        <v>77</v>
       </c>
       <c r="B63">
         <v>9</v>
       </c>
-      <c r="E63" s="13"/>
+      <c r="E63" s="14"/>
       <c r="F63">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2186,7 +2300,7 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B64">
         <v>11</v>
@@ -2197,7 +2311,7 @@
       <c r="D64">
         <v>1</v>
       </c>
-      <c r="E64" s="14">
+      <c r="E64" s="15">
         <v>6</v>
       </c>
       <c r="F64">
@@ -2205,12 +2319,12 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B65">
         <v>7</v>
@@ -2231,7 +2345,7 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B66">
         <v>5</v>
@@ -2252,7 +2366,7 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B67">
         <v>8</v>
@@ -2271,12 +2385,12 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B68">
         <v>7</v>
@@ -2297,7 +2411,7 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B69">
         <v>7</v>
@@ -2318,7 +2432,7 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B70">
         <v>8</v>
@@ -2337,12 +2451,12 @@
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B71">
         <v>8</v>
@@ -2361,12 +2475,12 @@
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B72">
         <v>5</v>
@@ -2387,7 +2501,7 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B73">
         <v>7</v>
@@ -2408,7 +2522,7 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B74">
         <v>7</v>
@@ -2429,7 +2543,7 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B75">
         <v>13</v>
@@ -2450,7 +2564,7 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B76">
         <v>9</v>
@@ -2471,7 +2585,7 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B77">
         <v>6</v>
@@ -2492,7 +2606,7 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B78">
         <v>8</v>
@@ -2513,7 +2627,7 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B79">
         <v>7</v>
@@ -2534,7 +2648,7 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B80">
         <v>5</v>
@@ -2554,8 +2668,8 @@
       </c>
     </row>
     <row r="81" spans="1:13">
-      <c r="A81" s="15" t="s">
-        <v>98</v>
+      <c r="A81" s="16" t="s">
+        <v>99</v>
       </c>
       <c r="B81">
         <v>7</v>
@@ -2576,7 +2690,7 @@
     </row>
     <row r="82" spans="1:13">
       <c r="A82" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B82">
         <v>6</v>
@@ -2597,7 +2711,7 @@
     </row>
     <row r="83" spans="1:13">
       <c r="A83" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B83">
         <v>7</v>
@@ -2618,7 +2732,7 @@
     </row>
     <row r="84" spans="1:13">
       <c r="A84" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B84">
         <v>10</v>
@@ -2639,7 +2753,7 @@
     </row>
     <row r="85" spans="1:13">
       <c r="A85" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B85">
         <v>9</v>
@@ -2660,7 +2774,7 @@
     </row>
     <row r="86" spans="1:13">
       <c r="A86" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B86">
         <v>6</v>
@@ -2681,7 +2795,7 @@
     </row>
     <row r="87" spans="1:13">
       <c r="A87" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B87">
         <v>10</v>
@@ -2702,7 +2816,7 @@
     </row>
     <row r="88" spans="1:13">
       <c r="A88" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B88">
         <v>6</v>
@@ -2723,13 +2837,13 @@
     </row>
     <row r="92" spans="1:13">
       <c r="C92" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D92" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H92" s="1"/>
     </row>
@@ -2738,34 +2852,34 @@
       <c r="H93" s="1"/>
     </row>
     <row r="94" spans="1:13">
-      <c r="A94" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="B94" s="17">
+      <c r="A94" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B94" s="18">
         <v>11</v>
       </c>
-      <c r="C94" s="17">
-        <v>2</v>
-      </c>
-      <c r="D94" s="17">
+      <c r="C94" s="18">
+        <v>2</v>
+      </c>
+      <c r="D94" s="18">
         <v>3</v>
       </c>
-      <c r="E94" s="17">
-        <f t="shared" ref="E94:E157" si="2">B94-C94-D94</f>
+      <c r="E94" s="18">
+        <f t="shared" ref="E94:E110" si="2">B94-C94-D94</f>
         <v>6</v>
       </c>
-      <c r="F94" s="17"/>
-      <c r="G94" s="17"/>
-      <c r="H94" s="17"/>
-      <c r="I94" s="17"/>
-      <c r="J94" s="17"/>
-      <c r="K94" s="17"/>
-      <c r="L94" s="17"/>
-      <c r="M94" s="18"/>
+      <c r="F94" s="18"/>
+      <c r="G94" s="18"/>
+      <c r="H94" s="18"/>
+      <c r="I94" s="18"/>
+      <c r="J94" s="18"/>
+      <c r="K94" s="18"/>
+      <c r="L94" s="18"/>
+      <c r="M94" s="19"/>
     </row>
     <row r="95" spans="1:13">
-      <c r="A95" s="19" t="s">
-        <v>110</v>
+      <c r="A95" s="20" t="s">
+        <v>111</v>
       </c>
       <c r="B95">
         <v>4</v>
@@ -2789,11 +2903,11 @@
       <c r="L95" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="M95" s="20"/>
+      <c r="M95" s="21"/>
     </row>
     <row r="96" spans="1:13">
-      <c r="A96" s="19" t="s">
-        <v>111</v>
+      <c r="A96" s="20" t="s">
+        <v>112</v>
       </c>
       <c r="B96">
         <v>5</v>
@@ -2819,11 +2933,11 @@
         <f>(K87/E80)*LN(I101/I102)</f>
         <v>0</v>
       </c>
-      <c r="M96" s="20"/>
+      <c r="M96" s="21"/>
     </row>
     <row r="97" spans="1:13">
-      <c r="A97" s="19" t="s">
-        <v>112</v>
+      <c r="A97" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="B97">
         <v>9</v>
@@ -2853,13 +2967,13 @@
         <f>K97/H97*100</f>
         <v>45.239111419570548</v>
       </c>
-      <c r="M97" s="20" t="s">
+      <c r="M97" s="21" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="98" spans="1:13">
-      <c r="A98" s="19" t="s">
-        <v>113</v>
+      <c r="A98" s="20" t="s">
+        <v>114</v>
       </c>
       <c r="B98">
         <v>6</v>
@@ -2874,11 +2988,11 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="M98" s="20"/>
+      <c r="M98" s="21"/>
     </row>
     <row r="99" spans="1:13">
-      <c r="A99" s="19" t="s">
-        <v>114</v>
+      <c r="A99" s="20" t="s">
+        <v>115</v>
       </c>
       <c r="B99">
         <v>9</v>
@@ -2893,11 +3007,11 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="M99" s="20"/>
+      <c r="M99" s="21"/>
     </row>
     <row r="100" spans="1:13">
-      <c r="A100" s="19" t="s">
-        <v>115</v>
+      <c r="A100" s="20" t="s">
+        <v>116</v>
       </c>
       <c r="B100">
         <v>7</v>
@@ -2912,11 +3026,11 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="M100" s="20"/>
+      <c r="M100" s="21"/>
     </row>
     <row r="101" spans="1:13">
-      <c r="A101" s="19" t="s">
-        <v>116</v>
+      <c r="A101" s="20" t="s">
+        <v>117</v>
       </c>
       <c r="B101">
         <v>6</v>
@@ -2942,11 +3056,11 @@
         <f>I107*E81</f>
         <v>2.961186191466085E-2</v>
       </c>
-      <c r="M101" s="20"/>
+      <c r="M101" s="21"/>
     </row>
     <row r="102" spans="1:13">
-      <c r="A102" s="19" t="s">
-        <v>117</v>
+      <c r="A102" s="20" t="s">
+        <v>118</v>
       </c>
       <c r="B102">
         <v>8</v>
@@ -2962,17 +3076,17 @@
         <v>6</v>
       </c>
       <c r="H102" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I102">
         <f>SUM(E94:E110)</f>
         <v>59</v>
       </c>
-      <c r="M102" s="20"/>
+      <c r="M102" s="21"/>
     </row>
     <row r="103" spans="1:13">
-      <c r="A103" s="19" t="s">
-        <v>118</v>
+      <c r="A103" s="20" t="s">
+        <v>119</v>
       </c>
       <c r="B103">
         <v>5</v>
@@ -2987,11 +3101,11 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="M103" s="20"/>
+      <c r="M103" s="21"/>
     </row>
     <row r="104" spans="1:13">
-      <c r="A104" s="19" t="s">
-        <v>119</v>
+      <c r="A104" s="20" t="s">
+        <v>120</v>
       </c>
       <c r="B104">
         <v>8</v>
@@ -3006,11 +3120,11 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="M104" s="20"/>
+      <c r="M104" s="21"/>
     </row>
     <row r="105" spans="1:13">
-      <c r="A105" s="19" t="s">
-        <v>120</v>
+      <c r="A105" s="20" t="s">
+        <v>121</v>
       </c>
       <c r="B105">
         <v>9</v>
@@ -3025,45 +3139,45 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="M105" s="20"/>
+      <c r="M105" s="21"/>
     </row>
     <row r="106" spans="1:13">
-      <c r="A106" s="19"/>
+      <c r="A106" s="20"/>
       <c r="E106">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H106" t="s">
-        <v>62</v>
-      </c>
-      <c r="M106" s="20"/>
+        <v>63</v>
+      </c>
+      <c r="M106" s="21"/>
     </row>
     <row r="107" spans="1:13">
-      <c r="A107" s="19"/>
+      <c r="A107" s="20"/>
       <c r="E107">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H107" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I107" s="11">
         <f>H97/$E$27</f>
         <v>5.9223723829321699E-3</v>
       </c>
       <c r="J107" t="s">
-        <v>65</v>
-      </c>
-      <c r="M107" s="20"/>
+        <v>66</v>
+      </c>
+      <c r="M107" s="21"/>
     </row>
     <row r="108" spans="1:13">
-      <c r="A108" s="19"/>
+      <c r="A108" s="20"/>
       <c r="E108">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H108" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I108" s="11">
         <f>$J$35/($J$36*$J$37*$E$27)/I101*1E+24</f>
@@ -3072,16 +3186,16 @@
       <c r="J108" t="s">
         <v>49</v>
       </c>
-      <c r="M108" s="20"/>
+      <c r="M108" s="21"/>
     </row>
     <row r="109" spans="1:13">
-      <c r="A109" s="19"/>
+      <c r="A109" s="20"/>
       <c r="E109">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H109" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I109" s="11">
         <f>-$J$35/($J$36*$J$37*$E$27*I102)*1E+24</f>
@@ -3090,67 +3204,62 @@
       <c r="J109" t="s">
         <v>49</v>
       </c>
-      <c r="M109" s="20"/>
+      <c r="M109" s="21"/>
     </row>
     <row r="110" spans="1:13">
-      <c r="A110" s="21"/>
-      <c r="B110" s="22"/>
-      <c r="C110" s="22"/>
-      <c r="D110" s="22"/>
-      <c r="E110" s="22">
+      <c r="A110" s="22"/>
+      <c r="B110" s="23"/>
+      <c r="C110" s="23"/>
+      <c r="D110" s="23"/>
+      <c r="E110" s="23">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F110" s="22"/>
-      <c r="G110" s="22"/>
-      <c r="H110" s="22"/>
-      <c r="I110" s="22"/>
-      <c r="J110" s="22"/>
-      <c r="K110" s="22"/>
-      <c r="L110" s="22"/>
-      <c r="M110" s="23"/>
-    </row>
-    <row r="111" spans="1:13">
-      <c r="E111" s="28"/>
+      <c r="F110" s="23"/>
+      <c r="G110" s="23"/>
+      <c r="H110" s="23"/>
+      <c r="I110" s="23"/>
+      <c r="J110" s="23"/>
+      <c r="K110" s="23"/>
+      <c r="L110" s="23"/>
+      <c r="M110" s="24"/>
     </row>
     <row r="112" spans="1:13">
-      <c r="E112" s="28"/>
       <c r="G112" s="1" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="H112" s="1"/>
     </row>
     <row r="113" spans="1:13">
-      <c r="E113" s="28"/>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
     </row>
     <row r="114" spans="1:13">
-      <c r="A114" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="B114" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="C114" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="D114" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E114" s="17"/>
-      <c r="F114" s="17"/>
-      <c r="G114" s="17"/>
-      <c r="H114" s="17"/>
-      <c r="I114" s="17"/>
-      <c r="J114" s="17"/>
-      <c r="K114" s="17"/>
-      <c r="L114" s="17"/>
-      <c r="M114" s="17"/>
+      <c r="A114" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="B114" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C114" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D114" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="E114" s="18"/>
+      <c r="F114" s="18"/>
+      <c r="G114" s="18"/>
+      <c r="H114" s="18"/>
+      <c r="I114" s="18"/>
+      <c r="J114" s="18"/>
+      <c r="K114" s="18"/>
+      <c r="L114" s="18"/>
+      <c r="M114" s="18"/>
     </row>
     <row r="115" spans="1:13">
       <c r="A115" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="B115">
         <v>7</v>
@@ -3161,14 +3270,14 @@
       <c r="D115">
         <v>1</v>
       </c>
-      <c r="E115" s="28">
-        <f t="shared" si="2"/>
+      <c r="E115">
+        <f t="shared" ref="E115:E126" si="3">B115-C115-D115</f>
         <v>5</v>
       </c>
     </row>
     <row r="116" spans="1:13">
       <c r="A116" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="B116">
         <v>3</v>
@@ -3179,17 +3288,17 @@
       <c r="D116">
         <v>0</v>
       </c>
-      <c r="E116" s="28">
-        <f t="shared" si="2"/>
+      <c r="E116">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="H116" s="30" t="s">
-        <v>153</v>
+      <c r="H116" s="10" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="117" spans="1:13">
       <c r="A117" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="B117">
         <v>12</v>
@@ -3200,14 +3309,14 @@
       <c r="D117">
         <v>2</v>
       </c>
-      <c r="E117" s="28">
-        <f t="shared" si="2"/>
+      <c r="E117">
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
     <row r="118" spans="1:13">
       <c r="A118" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="B118">
         <v>8</v>
@@ -3218,14 +3327,14 @@
       <c r="D118">
         <v>2</v>
       </c>
-      <c r="E118" s="28">
-        <f t="shared" si="2"/>
+      <c r="E118">
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
     <row r="119" spans="1:13">
       <c r="A119" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="B119">
         <v>6</v>
@@ -3236,14 +3345,14 @@
       <c r="D119">
         <v>1</v>
       </c>
-      <c r="E119" s="28">
-        <f t="shared" si="2"/>
+      <c r="E119">
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
     <row r="120" spans="1:13">
       <c r="A120" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="B120">
         <v>10</v>
@@ -3254,14 +3363,14 @@
       <c r="D120">
         <v>2</v>
       </c>
-      <c r="E120" s="28">
-        <f t="shared" si="2"/>
+      <c r="E120">
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
     <row r="121" spans="1:13">
       <c r="A121" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="B121">
         <v>6</v>
@@ -3272,14 +3381,14 @@
       <c r="D121">
         <v>1</v>
       </c>
-      <c r="E121" s="28">
-        <f t="shared" si="2"/>
+      <c r="E121">
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
     <row r="122" spans="1:13">
       <c r="A122" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="B122">
         <v>9</v>
@@ -3290,14 +3399,14 @@
       <c r="D122">
         <v>0</v>
       </c>
-      <c r="E122" s="28">
-        <f t="shared" si="2"/>
+      <c r="E122">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
     <row r="123" spans="1:13">
       <c r="A123" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="B123">
         <v>10</v>
@@ -3308,14 +3417,14 @@
       <c r="D123">
         <v>0</v>
       </c>
-      <c r="E123" s="28">
-        <f t="shared" si="2"/>
+      <c r="E123">
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
     <row r="124" spans="1:13">
       <c r="A124" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="B124">
         <v>9</v>
@@ -3326,14 +3435,14 @@
       <c r="D124">
         <v>2</v>
       </c>
-      <c r="E124" s="28">
-        <f t="shared" si="2"/>
+      <c r="E124">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
     <row r="125" spans="1:13">
       <c r="A125" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="B125">
         <v>3</v>
@@ -3344,286 +3453,31 @@
       <c r="D125">
         <v>0</v>
       </c>
-      <c r="E125" s="28">
-        <f t="shared" si="2"/>
+      <c r="E125">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:13">
-      <c r="A126" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="B126" s="22">
+      <c r="A126" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="B126" s="23">
         <v>9</v>
       </c>
-      <c r="C126" s="22">
-        <v>0</v>
-      </c>
-      <c r="D126" s="22">
-        <v>1</v>
-      </c>
-      <c r="E126" s="29">
-        <f t="shared" si="2"/>
+      <c r="C126" s="23">
+        <v>0</v>
+      </c>
+      <c r="D126" s="23">
+        <v>1</v>
+      </c>
+      <c r="E126" s="25">
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="F126" s="22"/>
-      <c r="G126" s="22"/>
-      <c r="H126" s="22"/>
-    </row>
-    <row r="127" spans="1:13">
-      <c r="E127" s="28"/>
-    </row>
-    <row r="128" spans="1:13">
-      <c r="E128" s="28"/>
-    </row>
-    <row r="129" spans="5:5">
-      <c r="E129" s="28"/>
-    </row>
-    <row r="130" spans="5:5">
-      <c r="E130" s="28"/>
-    </row>
-    <row r="131" spans="5:5">
-      <c r="E131" s="28"/>
-    </row>
-    <row r="132" spans="5:5">
-      <c r="E132" s="28"/>
-    </row>
-    <row r="133" spans="5:5">
-      <c r="E133" s="28"/>
-    </row>
-    <row r="134" spans="5:5">
-      <c r="E134" s="28"/>
-    </row>
-    <row r="135" spans="5:5">
-      <c r="E135" s="28"/>
-    </row>
-    <row r="136" spans="5:5">
-      <c r="E136" s="28"/>
-    </row>
-    <row r="137" spans="5:5">
-      <c r="E137" s="28"/>
-    </row>
-    <row r="138" spans="5:5">
-      <c r="E138" s="28"/>
-    </row>
-    <row r="139" spans="5:5">
-      <c r="E139" s="28"/>
-    </row>
-    <row r="140" spans="5:5">
-      <c r="E140" s="28"/>
-    </row>
-    <row r="141" spans="5:5">
-      <c r="E141" s="28"/>
-    </row>
-    <row r="142" spans="5:5">
-      <c r="E142" s="28"/>
-    </row>
-    <row r="143" spans="5:5">
-      <c r="E143" s="28"/>
-    </row>
-    <row r="144" spans="5:5">
-      <c r="E144" s="28"/>
-    </row>
-    <row r="145" spans="5:5">
-      <c r="E145" s="28"/>
-    </row>
-    <row r="146" spans="5:5">
-      <c r="E146" s="28"/>
-    </row>
-    <row r="147" spans="5:5">
-      <c r="E147" s="28"/>
-    </row>
-    <row r="148" spans="5:5">
-      <c r="E148" s="28"/>
-    </row>
-    <row r="149" spans="5:5">
-      <c r="E149" s="28"/>
-    </row>
-    <row r="150" spans="5:5">
-      <c r="E150" s="28"/>
-    </row>
-    <row r="151" spans="5:5">
-      <c r="E151" s="28"/>
-    </row>
-    <row r="152" spans="5:5">
-      <c r="E152" s="28"/>
-    </row>
-    <row r="153" spans="5:5">
-      <c r="E153" s="28"/>
-    </row>
-    <row r="154" spans="5:5">
-      <c r="E154" s="28"/>
-    </row>
-    <row r="155" spans="5:5">
-      <c r="E155" s="28"/>
-    </row>
-    <row r="156" spans="5:5">
-      <c r="E156" s="28"/>
-    </row>
-    <row r="157" spans="5:5">
-      <c r="E157" s="28"/>
-    </row>
-    <row r="158" spans="5:5">
-      <c r="E158" s="28"/>
-    </row>
-    <row r="159" spans="5:5">
-      <c r="E159" s="28"/>
-    </row>
-    <row r="160" spans="5:5">
-      <c r="E160" s="28"/>
-    </row>
-    <row r="161" spans="5:5">
-      <c r="E161" s="28"/>
-    </row>
-    <row r="162" spans="5:5">
-      <c r="E162" s="28"/>
-    </row>
-    <row r="163" spans="5:5">
-      <c r="E163" s="28"/>
-    </row>
-    <row r="164" spans="5:5">
-      <c r="E164" s="28"/>
-    </row>
-    <row r="165" spans="5:5">
-      <c r="E165" s="28"/>
-    </row>
-    <row r="166" spans="5:5">
-      <c r="E166" s="28"/>
-    </row>
-    <row r="167" spans="5:5">
-      <c r="E167" s="28"/>
-    </row>
-    <row r="168" spans="5:5">
-      <c r="E168" s="28"/>
-    </row>
-    <row r="169" spans="5:5">
-      <c r="E169" s="28"/>
-    </row>
-    <row r="170" spans="5:5">
-      <c r="E170" s="28"/>
-    </row>
-    <row r="171" spans="5:5">
-      <c r="E171" s="28"/>
-    </row>
-    <row r="172" spans="5:5">
-      <c r="E172" s="28"/>
-    </row>
-    <row r="173" spans="5:5">
-      <c r="E173" s="28"/>
-    </row>
-    <row r="174" spans="5:5">
-      <c r="E174" s="28"/>
-    </row>
-    <row r="175" spans="5:5">
-      <c r="E175" s="28"/>
-    </row>
-    <row r="176" spans="5:5">
-      <c r="E176" s="28"/>
-    </row>
-    <row r="177" spans="5:5">
-      <c r="E177" s="28"/>
-    </row>
-    <row r="178" spans="5:5">
-      <c r="E178" s="28"/>
-    </row>
-    <row r="179" spans="5:5">
-      <c r="E179" s="28"/>
-    </row>
-    <row r="180" spans="5:5">
-      <c r="E180" s="28"/>
-    </row>
-    <row r="181" spans="5:5">
-      <c r="E181" s="28"/>
-    </row>
-    <row r="182" spans="5:5">
-      <c r="E182" s="28"/>
-    </row>
-    <row r="183" spans="5:5">
-      <c r="E183" s="28"/>
-    </row>
-    <row r="184" spans="5:5">
-      <c r="E184" s="28"/>
-    </row>
-    <row r="185" spans="5:5">
-      <c r="E185" s="28"/>
-    </row>
-    <row r="186" spans="5:5">
-      <c r="E186" s="28"/>
-    </row>
-    <row r="187" spans="5:5">
-      <c r="E187" s="28"/>
-    </row>
-    <row r="188" spans="5:5">
-      <c r="E188" s="28"/>
-    </row>
-    <row r="189" spans="5:5">
-      <c r="E189" s="28"/>
-    </row>
-    <row r="190" spans="5:5">
-      <c r="E190" s="28"/>
-    </row>
-    <row r="191" spans="5:5">
-      <c r="E191" s="28"/>
-    </row>
-    <row r="192" spans="5:5">
-      <c r="E192" s="28"/>
-    </row>
-    <row r="193" spans="5:5">
-      <c r="E193" s="28"/>
-    </row>
-    <row r="194" spans="5:5">
-      <c r="E194" s="28"/>
-    </row>
-    <row r="195" spans="5:5">
-      <c r="E195" s="28"/>
-    </row>
-    <row r="196" spans="5:5">
-      <c r="E196" s="28"/>
-    </row>
-    <row r="197" spans="5:5">
-      <c r="E197" s="28"/>
-    </row>
-    <row r="198" spans="5:5">
-      <c r="E198" s="28"/>
-    </row>
-    <row r="199" spans="5:5">
-      <c r="E199" s="28"/>
-    </row>
-    <row r="200" spans="5:5">
-      <c r="E200" s="28"/>
-    </row>
-    <row r="201" spans="5:5">
-      <c r="E201" s="28"/>
-    </row>
-    <row r="202" spans="5:5">
-      <c r="E202" s="28"/>
-    </row>
-    <row r="203" spans="5:5">
-      <c r="E203" s="28"/>
-    </row>
-    <row r="204" spans="5:5">
-      <c r="E204" s="28"/>
-    </row>
-    <row r="205" spans="5:5">
-      <c r="E205" s="28"/>
-    </row>
-    <row r="206" spans="5:5">
-      <c r="E206" s="28"/>
-    </row>
-    <row r="207" spans="5:5">
-      <c r="E207" s="28"/>
-    </row>
-    <row r="208" spans="5:5">
-      <c r="E208" s="28"/>
-    </row>
-    <row r="209" spans="5:5">
-      <c r="E209" s="28"/>
-    </row>
-    <row r="210" spans="5:5">
-      <c r="E210" s="28"/>
-    </row>
-    <row r="211" spans="5:5">
-      <c r="E211" s="28"/>
+      <c r="F126" s="23"/>
+      <c r="G126" s="23"/>
+      <c r="H126" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3631,8 +3485,8 @@
     <mergeCell ref="G112:H113"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3640,7 +3494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
@@ -3657,29 +3511,29 @@
     <col min="12" max="12" width="2.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="24" customFormat="1">
-      <c r="A1" s="24" t="s">
-        <v>121</v>
+    <row r="1" spans="1:12" s="26" customFormat="1">
+      <c r="A1" s="26" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="B3" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="F3" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="G3" t="s">
-        <v>126</v>
-      </c>
-      <c r="I3" s="25" t="s">
-        <v>127</v>
+        <v>145</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -3700,11 +3554,11 @@
         <f>SUM(C4:C59)</f>
         <v>40</v>
       </c>
-      <c r="I4" s="26">
+      <c r="I4" s="28">
         <v>5.5830000000000002</v>
       </c>
       <c r="J4" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="K4">
         <v>2.4E-2</v>
@@ -3813,28 +3667,28 @@
       </c>
     </row>
     <row r="14" spans="1:12" s="7" customFormat="1">
-      <c r="A14" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14">
+      <c r="A14" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="7">
         <v>12</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="7">
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="27" t="s">
-        <v>58</v>
+      <c r="A15" s="29" t="s">
+        <v>59</v>
       </c>
       <c r="B15">
         <v>18</v>
@@ -3843,7 +3697,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="E15">
         <f>G4/F4</f>
@@ -3862,8 +3716,8 @@
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="27" t="s">
-        <v>59</v>
+      <c r="A16" s="29" t="s">
+        <v>60</v>
       </c>
       <c r="B16">
         <v>18</v>
@@ -3872,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="E16">
         <f>E15*100</f>
@@ -3883,8 +3737,8 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="27" t="s">
-        <v>60</v>
+      <c r="A17" s="29" t="s">
+        <v>61</v>
       </c>
       <c r="B17">
         <v>20</v>
@@ -3894,8 +3748,8 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="27" t="s">
-        <v>61</v>
+      <c r="A18" s="29" t="s">
+        <v>62</v>
       </c>
       <c r="B18">
         <v>16</v>
@@ -3904,12 +3758,12 @@
         <v>2</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="27" t="s">
-        <v>63</v>
+      <c r="A19" s="29" t="s">
+        <v>64</v>
       </c>
       <c r="B19">
         <v>13</v>
@@ -3923,8 +3777,8 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="27" t="s">
-        <v>66</v>
+      <c r="A20" s="29" t="s">
+        <v>67</v>
       </c>
       <c r="B20">
         <v>7</v>
@@ -3934,8 +3788,8 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="27" t="s">
-        <v>68</v>
+      <c r="A21" s="29" t="s">
+        <v>69</v>
       </c>
       <c r="B21">
         <v>14</v>
@@ -3945,8 +3799,8 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="27" t="s">
-        <v>70</v>
+      <c r="A22" s="29" t="s">
+        <v>71</v>
       </c>
       <c r="B22">
         <v>10</v>
@@ -3956,8 +3810,8 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="27" t="s">
-        <v>71</v>
+      <c r="A23" s="29" t="s">
+        <v>72</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -3967,8 +3821,8 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="27" t="s">
-        <v>72</v>
+      <c r="A24" s="29" t="s">
+        <v>73</v>
       </c>
       <c r="B24">
         <v>11</v>
@@ -3978,8 +3832,8 @@
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="27" t="s">
-        <v>73</v>
+      <c r="A25" s="29" t="s">
+        <v>74</v>
       </c>
       <c r="B25">
         <v>10</v>
@@ -3989,8 +3843,8 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="15" t="s">
-        <v>74</v>
+      <c r="A26" s="16" t="s">
+        <v>75</v>
       </c>
       <c r="B26">
         <v>6</v>
@@ -4000,8 +3854,8 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="27" t="s">
-        <v>75</v>
+      <c r="A27" s="29" t="s">
+        <v>76</v>
       </c>
       <c r="B27">
         <v>10</v>
@@ -4011,8 +3865,8 @@
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="27" t="s">
-        <v>76</v>
+      <c r="A28" s="29" t="s">
+        <v>77</v>
       </c>
       <c r="B28">
         <v>16</v>
@@ -4022,8 +3876,8 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="27" t="s">
-        <v>77</v>
+      <c r="A29" s="29" t="s">
+        <v>78</v>
       </c>
       <c r="B29">
         <v>9</v>
@@ -4033,8 +3887,8 @@
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="27" t="s">
-        <v>79</v>
+      <c r="A30" s="29" t="s">
+        <v>80</v>
       </c>
       <c r="B30">
         <v>12</v>
@@ -4044,8 +3898,8 @@
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="27" t="s">
-        <v>80</v>
+      <c r="A31" s="29" t="s">
+        <v>81</v>
       </c>
       <c r="B31">
         <v>13</v>
@@ -4055,8 +3909,8 @@
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="15" t="s">
-        <v>81</v>
+      <c r="A32" s="16" t="s">
+        <v>82</v>
       </c>
       <c r="B32">
         <v>15</v>
@@ -4066,8 +3920,8 @@
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="27" t="s">
-        <v>83</v>
+      <c r="A33" s="29" t="s">
+        <v>84</v>
       </c>
       <c r="B33">
         <v>15</v>
@@ -4077,8 +3931,8 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="27" t="s">
-        <v>84</v>
+      <c r="A34" s="29" t="s">
+        <v>85</v>
       </c>
       <c r="B34">
         <v>16</v>
@@ -4088,8 +3942,8 @@
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="27" t="s">
-        <v>85</v>
+      <c r="A35" s="29" t="s">
+        <v>86</v>
       </c>
       <c r="B35">
         <v>10</v>
@@ -4099,8 +3953,8 @@
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="27" t="s">
-        <v>87</v>
+      <c r="A36" s="29" t="s">
+        <v>88</v>
       </c>
       <c r="B36">
         <v>11</v>
@@ -4110,8 +3964,8 @@
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="27" t="s">
-        <v>89</v>
+      <c r="A37" s="29" t="s">
+        <v>90</v>
       </c>
       <c r="B37">
         <v>23</v>
@@ -4121,16 +3975,16 @@
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="27" t="s">
-        <v>90</v>
+      <c r="A38" s="29" t="s">
+        <v>91</v>
       </c>
       <c r="D38" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="27" t="s">
-        <v>91</v>
+      <c r="A39" s="29" t="s">
+        <v>92</v>
       </c>
       <c r="B39">
         <v>15</v>
@@ -4140,8 +3994,8 @@
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="27" t="s">
-        <v>92</v>
+      <c r="A40" s="29" t="s">
+        <v>93</v>
       </c>
       <c r="B40">
         <v>16</v>
@@ -4151,8 +4005,8 @@
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="27" t="s">
-        <v>93</v>
+      <c r="A41" s="29" t="s">
+        <v>94</v>
       </c>
       <c r="B41">
         <v>13</v>
@@ -4162,8 +4016,8 @@
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="27" t="s">
-        <v>94</v>
+      <c r="A42" s="29" t="s">
+        <v>95</v>
       </c>
       <c r="B42">
         <v>17</v>
@@ -4173,8 +4027,8 @@
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="27" t="s">
-        <v>95</v>
+      <c r="A43" s="29" t="s">
+        <v>96</v>
       </c>
       <c r="B43">
         <v>10</v>
@@ -4184,8 +4038,8 @@
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="27" t="s">
-        <v>96</v>
+      <c r="A44" s="29" t="s">
+        <v>97</v>
       </c>
       <c r="B44">
         <v>15</v>
@@ -4195,8 +4049,8 @@
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="27" t="s">
-        <v>97</v>
+      <c r="A45" s="29" t="s">
+        <v>98</v>
       </c>
       <c r="B45">
         <v>15</v>
@@ -4206,8 +4060,8 @@
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="27" t="s">
-        <v>98</v>
+      <c r="A46" s="29" t="s">
+        <v>99</v>
       </c>
       <c r="B46">
         <v>16</v>
@@ -4217,8 +4071,8 @@
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="27" t="s">
-        <v>99</v>
+      <c r="A47" s="29" t="s">
+        <v>100</v>
       </c>
       <c r="B47">
         <v>8</v>
@@ -4228,8 +4082,8 @@
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="27" t="s">
-        <v>100</v>
+      <c r="A48" s="29" t="s">
+        <v>101</v>
       </c>
       <c r="B48">
         <v>18</v>
@@ -4239,8 +4093,8 @@
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="27" t="s">
-        <v>101</v>
+      <c r="A49" s="29" t="s">
+        <v>102</v>
       </c>
       <c r="B49">
         <v>12</v>
@@ -4250,8 +4104,8 @@
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="27" t="s">
-        <v>102</v>
+      <c r="A50" s="29" t="s">
+        <v>103</v>
       </c>
       <c r="B50">
         <v>12</v>
@@ -4261,8 +4115,8 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="27" t="s">
-        <v>103</v>
+      <c r="A51" s="29" t="s">
+        <v>104</v>
       </c>
       <c r="B51">
         <v>11</v>
@@ -4272,8 +4126,8 @@
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="27" t="s">
-        <v>104</v>
+      <c r="A52" s="29" t="s">
+        <v>105</v>
       </c>
       <c r="B52">
         <v>16</v>
@@ -4283,8 +4137,8 @@
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="27" t="s">
-        <v>105</v>
+      <c r="A53" s="29" t="s">
+        <v>106</v>
       </c>
       <c r="B53">
         <v>16</v>
@@ -4297,4 +4151,679 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.3984375" defaultRowHeight="15.6"/>
+  <cols>
+    <col min="3" max="3" width="24.19921875" customWidth="1"/>
+    <col min="4" max="4" width="20.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="C1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E15" si="0">B2-C2-D2</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>163</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>165</v>
+      </c>
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>167</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection password="ED6F" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.3984375" defaultRowHeight="15.6"/>
+  <cols>
+    <col min="3" max="3" width="24.19921875" customWidth="1"/>
+    <col min="4" max="4" width="20.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="C1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E15" si="0">B2-C2-D2</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G9" s="30"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>165</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>166</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>167</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.3984375" defaultRowHeight="15.6"/>
+  <cols>
+    <col min="3" max="3" width="24.19921875" customWidth="1"/>
+    <col min="4" max="4" width="20.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="C1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E15" si="0">B2-C2-D2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>160</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>161</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>165</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>166</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>167</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Bubble-chambers/Foglio Lavoro Bolle .xlsx
+++ b/Bubble-chambers/Foglio Lavoro Bolle .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\root\LabFNS2\Bubble-chambers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A79E6A-A827-4CBA-9A3D-38FBEA056BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE40A373-56E6-4758-A5B1-49AC8D93784E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="173">
   <si>
     <t>MISURA DELLA SEZIONE D'URTO ANTIPROTONI-DEUTERIO P_lab=1,6 GeV/c</t>
   </si>
@@ -547,6 +547,18 @@
   </si>
   <si>
     <t>047-2</t>
+  </si>
+  <si>
+    <t>ANTI P</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>3P</t>
+  </si>
+  <si>
+    <t>Tot dec</t>
   </si>
 </sst>
 </file>
@@ -638,7 +650,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -661,6 +673,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF8CBAD"/>
         <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -758,9 +776,6 @@
   </cellStyleXfs>
   <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -789,7 +804,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1317,47 +1335,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="2"/>
+      <c r="A2" s="1"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="2"/>
+      <c r="A4" s="1"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="2"/>
+      <c r="A5" s="1"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="2"/>
+      <c r="A6" s="1"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="2"/>
+      <c r="A7" s="1"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="2"/>
+      <c r="A8" s="1"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="2"/>
+      <c r="A9" s="1"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="2"/>
+      <c r="A10" s="1"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="2"/>
+      <c r="A11" s="1"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="2"/>
+      <c r="A13" s="1"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1390,66 +1408,66 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="3" customFormat="1">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:11" s="2" customFormat="1">
+      <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>-5.1700000000000003E-2</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>8.5736000000000008</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <v>-8.7030999999999992</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <v>-7.4099999999999999E-2</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
         <v>-2.9499999999999998E-2</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="2">
         <v>-4.99E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="3" customFormat="1">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:11" s="2" customFormat="1">
+      <c r="A18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>29.970300000000002</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>14.975199999999999</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>14.985900000000001</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <v>-5.5999999999999999E-3</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
         <v>23.232700000000001</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="2">
         <v>-4.9466000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1482,76 +1500,76 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="3" customFormat="1">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:11" s="2" customFormat="1">
+      <c r="A23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <v>-2.9999999999999997E-4</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>8.6404999999999994</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="2">
         <v>-8.641</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="2">
         <v>-2.9999999999999997E-4</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="2">
         <v>8.6417999999999999</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="2">
         <v>-8.6408000000000005</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="2">
         <v>-1.6500000000000001E-2</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="2">
         <v>-1.3899999999999999E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="3" customFormat="1">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:11" s="2" customFormat="1">
+      <c r="A24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <v>29.970300000000002</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <v>14.9801</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="2">
         <v>14.9838</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="2">
         <v>-4.3E-3</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="2">
         <v>-14.9252</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="2">
         <v>-14.9831</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="2">
         <v>23.238299999999999</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="2">
         <v>-4.9396000000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="5" customFormat="1">
-      <c r="A26" s="4"/>
-      <c r="B26" s="5" t="s">
+    <row r="26" spans="1:11" s="4" customFormat="1">
+      <c r="A26" s="3"/>
+      <c r="B26" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1572,7 +1590,7 @@
         <f>I31/D27</f>
         <v>39.429140914360879</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="H27" s="4" t="s">
         <v>19</v>
       </c>
       <c r="I27">
@@ -1592,7 +1610,7 @@
       <c r="F28" t="s">
         <v>22</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H28" s="3" t="s">
         <v>23</v>
       </c>
       <c r="I28">
@@ -1600,7 +1618,7 @@
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="H29" s="4" t="s">
+      <c r="H29" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I29">
@@ -1609,7 +1627,7 @@
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="H30" s="4" t="s">
+      <c r="H30" s="3" t="s">
         <v>25</v>
       </c>
       <c r="I30">
@@ -1618,7 +1636,7 @@
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="H31" s="4" t="s">
+      <c r="H31" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I31">
@@ -1626,42 +1644,42 @@
       </c>
     </row>
     <row r="33" spans="1:13">
-      <c r="H33" s="6" t="s">
+      <c r="H33" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:13" s="7" customFormat="1">
-      <c r="H34" s="7" t="s">
+    <row r="34" spans="1:13" s="6" customFormat="1">
+      <c r="H34" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="J34" s="7">
+      <c r="J34" s="6">
         <v>1.6</v>
       </c>
-      <c r="K34" s="8">
+      <c r="K34" s="7">
         <v>2.0390000000000001E-20</v>
       </c>
     </row>
-    <row r="35" spans="1:13" s="7" customFormat="1">
-      <c r="H35" s="7" t="s">
+    <row r="35" spans="1:13" s="6" customFormat="1">
+      <c r="H35" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J35" s="9">
+      <c r="J35" s="8">
         <v>2.0129999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:13" s="7" customFormat="1">
-      <c r="H36" s="7" t="s">
+    <row r="36" spans="1:13" s="6" customFormat="1">
+      <c r="H36" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J36" s="7">
+      <c r="J36" s="6">
         <v>0.14099999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:13" s="7" customFormat="1">
-      <c r="H37" s="7" t="s">
+    <row r="37" spans="1:13" s="6" customFormat="1">
+      <c r="H37" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="J37" s="8">
+      <c r="J37" s="7">
         <v>6.0220000000000003E+23</v>
       </c>
     </row>
@@ -1705,7 +1723,7 @@
         <f t="shared" ref="F39:F70" si="0">B39-(D39+C39+E39)</f>
         <v>0</v>
       </c>
-      <c r="H39" s="7" t="s">
+      <c r="H39" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1771,13 +1789,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H42" s="10" t="s">
+      <c r="H42" s="9" t="s">
         <v>43</v>
       </c>
       <c r="K42" t="s">
         <v>44</v>
       </c>
-      <c r="L42" s="10" t="s">
+      <c r="L42" s="9" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1801,14 +1819,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H43" s="11">
+      <c r="H43" s="10">
         <f>$J$35/($J$36*$J$37*$E$27)*LN(I48/I49)</f>
         <v>2.2676421778333534E-25</v>
       </c>
       <c r="I43" t="s">
         <v>47</v>
       </c>
-      <c r="J43" s="11">
+      <c r="J43" s="10">
         <f>(K34/E27)*LN(I48/I49)</f>
         <v>1.950328831493361E-22</v>
       </c>
@@ -1833,7 +1851,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H44" s="11">
+      <c r="H44" s="10">
         <f>H43*1E+24</f>
         <v>0.22676421778333533</v>
       </c>
@@ -1844,7 +1862,7 @@
         <f>SQRT(POWER(I54*E28,2) + POWER(I55*SQRT(I48),2) + POWER(I56*SQRT(I49),2))</f>
         <v>3.9959506104829214E-2</v>
       </c>
-      <c r="L44" s="12">
+      <c r="L44" s="11">
         <f>K44/H44*100</f>
         <v>17.621610012126787</v>
       </c>
@@ -2088,7 +2106,7 @@
       <c r="H54" t="s">
         <v>65</v>
       </c>
-      <c r="I54" s="11">
+      <c r="I54" s="10">
         <f>H44/$E$27</f>
         <v>5.7511833259532999E-3</v>
       </c>
@@ -2119,7 +2137,7 @@
       <c r="H55" t="s">
         <v>68</v>
       </c>
-      <c r="I55" s="11">
+      <c r="I55" s="10">
         <f>$J$35/($J$36*$J$37*$E$27)/I48*1E+24</f>
         <v>1.0794720480485733E-3</v>
       </c>
@@ -2150,7 +2168,7 @@
       <c r="H56" t="s">
         <v>70</v>
       </c>
-      <c r="I56" s="11">
+      <c r="I56" s="10">
         <f>-$J$35/($J$36*$J$37*$E$27*I49)*1E+24</f>
         <v>-1.5739945831493595E-3</v>
       </c>
@@ -2241,7 +2259,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J60" s="13"/>
+      <c r="J60" s="12"/>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" t="s">
@@ -2286,13 +2304,13 @@
       </c>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63" s="14" t="s">
+      <c r="A63" s="13" t="s">
         <v>77</v>
       </c>
       <c r="B63">
         <v>9</v>
       </c>
-      <c r="E63" s="14"/>
+      <c r="E63" s="13"/>
       <c r="F63">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2311,7 +2329,7 @@
       <c r="D64">
         <v>1</v>
       </c>
-      <c r="E64" s="15">
+      <c r="E64" s="14">
         <v>6</v>
       </c>
       <c r="F64">
@@ -2471,7 +2489,7 @@
         <v>6</v>
       </c>
       <c r="F71">
-        <f t="shared" ref="F71:F102" si="1">B71-(D71+C71+E71)</f>
+        <f t="shared" ref="F71:F88" si="1">B71-(D71+C71+E71)</f>
         <v>0</v>
       </c>
       <c r="H71" t="s">
@@ -2668,7 +2686,7 @@
       </c>
     </row>
     <row r="81" spans="1:13">
-      <c r="A81" s="16" t="s">
+      <c r="A81" s="15" t="s">
         <v>99</v>
       </c>
       <c r="B81">
@@ -2842,43 +2860,43 @@
       <c r="D92" t="s">
         <v>108</v>
       </c>
-      <c r="G92" s="1" t="s">
+      <c r="G92" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="H92" s="1"/>
+      <c r="H92" s="29"/>
     </row>
     <row r="93" spans="1:13">
-      <c r="G93" s="1"/>
-      <c r="H93" s="1"/>
+      <c r="G93" s="29"/>
+      <c r="H93" s="29"/>
     </row>
     <row r="94" spans="1:13">
-      <c r="A94" s="17" t="s">
+      <c r="A94" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="B94" s="18">
+      <c r="B94" s="17">
         <v>11</v>
       </c>
-      <c r="C94" s="18">
-        <v>2</v>
-      </c>
-      <c r="D94" s="18">
+      <c r="C94" s="17">
+        <v>2</v>
+      </c>
+      <c r="D94" s="17">
         <v>3</v>
       </c>
-      <c r="E94" s="18">
+      <c r="E94" s="17">
         <f t="shared" ref="E94:E110" si="2">B94-C94-D94</f>
         <v>6</v>
       </c>
-      <c r="F94" s="18"/>
-      <c r="G94" s="18"/>
-      <c r="H94" s="18"/>
-      <c r="I94" s="18"/>
-      <c r="J94" s="18"/>
-      <c r="K94" s="18"/>
-      <c r="L94" s="18"/>
-      <c r="M94" s="19"/>
+      <c r="F94" s="17"/>
+      <c r="G94" s="17"/>
+      <c r="H94" s="17"/>
+      <c r="I94" s="17"/>
+      <c r="J94" s="17"/>
+      <c r="K94" s="17"/>
+      <c r="L94" s="17"/>
+      <c r="M94" s="18"/>
     </row>
     <row r="95" spans="1:13">
-      <c r="A95" s="20" t="s">
+      <c r="A95" s="19" t="s">
         <v>111</v>
       </c>
       <c r="B95">
@@ -2894,19 +2912,19 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="H95" s="10" t="s">
+      <c r="H95" s="9" t="s">
         <v>43</v>
       </c>
       <c r="K95" t="s">
         <v>44</v>
       </c>
-      <c r="L95" s="10" t="s">
+      <c r="L95" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="M95" s="21"/>
+      <c r="M95" s="20"/>
     </row>
     <row r="96" spans="1:13">
-      <c r="A96" s="20" t="s">
+      <c r="A96" s="19" t="s">
         <v>112</v>
       </c>
       <c r="B96">
@@ -2922,21 +2940,21 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="H96" s="11">
+      <c r="H96" s="10">
         <f>$J$35/($J$36*$J$37*$E$27)*LN(I101/I102)</f>
         <v>2.3351405523395175E-25</v>
       </c>
       <c r="I96" t="s">
         <v>47</v>
       </c>
-      <c r="J96" s="11">
+      <c r="J96" s="10">
         <f>(K87/E80)*LN(I101/I102)</f>
         <v>0</v>
       </c>
-      <c r="M96" s="21"/>
+      <c r="M96" s="20"/>
     </row>
     <row r="97" spans="1:13">
-      <c r="A97" s="20" t="s">
+      <c r="A97" s="19" t="s">
         <v>113</v>
       </c>
       <c r="B97">
@@ -2952,7 +2970,7 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="H97" s="11">
+      <c r="H97" s="10">
         <f>H96*1E+24</f>
         <v>0.23351405523395175</v>
       </c>
@@ -2963,16 +2981,16 @@
         <f>SQRT(POWER(I107*E81,2) + POWER(I108*SQRT(I101),2) + POWER(I109*SQRT(I102),2))</f>
         <v>0.10563968362764495</v>
       </c>
-      <c r="L97" s="12">
+      <c r="L97" s="11">
         <f>K97/H97*100</f>
         <v>45.239111419570548</v>
       </c>
-      <c r="M97" s="21" t="s">
+      <c r="M97" s="20" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="98" spans="1:13">
-      <c r="A98" s="20" t="s">
+      <c r="A98" s="19" t="s">
         <v>114</v>
       </c>
       <c r="B98">
@@ -2988,10 +3006,10 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="M98" s="21"/>
+      <c r="M98" s="20"/>
     </row>
     <row r="99" spans="1:13">
-      <c r="A99" s="20" t="s">
+      <c r="A99" s="19" t="s">
         <v>115</v>
       </c>
       <c r="B99">
@@ -3007,10 +3025,10 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="M99" s="21"/>
+      <c r="M99" s="20"/>
     </row>
     <row r="100" spans="1:13">
-      <c r="A100" s="20" t="s">
+      <c r="A100" s="19" t="s">
         <v>116</v>
       </c>
       <c r="B100">
@@ -3026,10 +3044,10 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="M100" s="21"/>
+      <c r="M100" s="20"/>
     </row>
     <row r="101" spans="1:13">
-      <c r="A101" s="20" t="s">
+      <c r="A101" s="19" t="s">
         <v>117</v>
       </c>
       <c r="B101">
@@ -3056,10 +3074,10 @@
         <f>I107*E81</f>
         <v>2.961186191466085E-2</v>
       </c>
-      <c r="M101" s="21"/>
+      <c r="M101" s="20"/>
     </row>
     <row r="102" spans="1:13">
-      <c r="A102" s="20" t="s">
+      <c r="A102" s="19" t="s">
         <v>118</v>
       </c>
       <c r="B102">
@@ -3082,10 +3100,10 @@
         <f>SUM(E94:E110)</f>
         <v>59</v>
       </c>
-      <c r="M102" s="21"/>
+      <c r="M102" s="20"/>
     </row>
     <row r="103" spans="1:13">
-      <c r="A103" s="20" t="s">
+      <c r="A103" s="19" t="s">
         <v>119</v>
       </c>
       <c r="B103">
@@ -3101,10 +3119,10 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="M103" s="21"/>
+      <c r="M103" s="20"/>
     </row>
     <row r="104" spans="1:13">
-      <c r="A104" s="20" t="s">
+      <c r="A104" s="19" t="s">
         <v>120</v>
       </c>
       <c r="B104">
@@ -3120,10 +3138,10 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="M104" s="21"/>
+      <c r="M104" s="20"/>
     </row>
     <row r="105" spans="1:13">
-      <c r="A105" s="20" t="s">
+      <c r="A105" s="19" t="s">
         <v>121</v>
       </c>
       <c r="B105">
@@ -3139,10 +3157,10 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="M105" s="21"/>
+      <c r="M105" s="20"/>
     </row>
     <row r="106" spans="1:13">
-      <c r="A106" s="20"/>
+      <c r="A106" s="19"/>
       <c r="E106">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3150,10 +3168,10 @@
       <c r="H106" t="s">
         <v>63</v>
       </c>
-      <c r="M106" s="21"/>
+      <c r="M106" s="20"/>
     </row>
     <row r="107" spans="1:13">
-      <c r="A107" s="20"/>
+      <c r="A107" s="19"/>
       <c r="E107">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3161,17 +3179,17 @@
       <c r="H107" t="s">
         <v>65</v>
       </c>
-      <c r="I107" s="11">
+      <c r="I107" s="10">
         <f>H97/$E$27</f>
         <v>5.9223723829321699E-3</v>
       </c>
       <c r="J107" t="s">
         <v>66</v>
       </c>
-      <c r="M107" s="21"/>
+      <c r="M107" s="20"/>
     </row>
     <row r="108" spans="1:13">
-      <c r="A108" s="20"/>
+      <c r="A108" s="19"/>
       <c r="E108">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3179,17 +3197,17 @@
       <c r="H108" t="s">
         <v>68</v>
       </c>
-      <c r="I108" s="11">
+      <c r="I108" s="10">
         <f>$J$35/($J$36*$J$37*$E$27)/I101*1E+24</f>
         <v>6.9111026524489132E-3</v>
       </c>
       <c r="J108" t="s">
         <v>49</v>
       </c>
-      <c r="M108" s="21"/>
+      <c r="M108" s="20"/>
     </row>
     <row r="109" spans="1:13">
-      <c r="A109" s="20"/>
+      <c r="A109" s="19"/>
       <c r="E109">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3197,65 +3215,65 @@
       <c r="H109" t="s">
         <v>70</v>
       </c>
-      <c r="I109" s="11">
+      <c r="I109" s="10">
         <f>-$J$35/($J$36*$J$37*$E$27*I102)*1E+24</f>
         <v>-1.0190947979034836E-2</v>
       </c>
       <c r="J109" t="s">
         <v>49</v>
       </c>
-      <c r="M109" s="21"/>
+      <c r="M109" s="20"/>
     </row>
     <row r="110" spans="1:13">
-      <c r="A110" s="22"/>
-      <c r="B110" s="23"/>
-      <c r="C110" s="23"/>
-      <c r="D110" s="23"/>
-      <c r="E110" s="23">
+      <c r="A110" s="21"/>
+      <c r="B110" s="22"/>
+      <c r="C110" s="22"/>
+      <c r="D110" s="22"/>
+      <c r="E110" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F110" s="23"/>
-      <c r="G110" s="23"/>
-      <c r="H110" s="23"/>
-      <c r="I110" s="23"/>
-      <c r="J110" s="23"/>
-      <c r="K110" s="23"/>
-      <c r="L110" s="23"/>
-      <c r="M110" s="24"/>
+      <c r="F110" s="22"/>
+      <c r="G110" s="22"/>
+      <c r="H110" s="22"/>
+      <c r="I110" s="22"/>
+      <c r="J110" s="22"/>
+      <c r="K110" s="22"/>
+      <c r="L110" s="22"/>
+      <c r="M110" s="23"/>
     </row>
     <row r="112" spans="1:13">
-      <c r="G112" s="1" t="s">
+      <c r="G112" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="H112" s="1"/>
+      <c r="H112" s="29"/>
     </row>
     <row r="113" spans="1:13">
-      <c r="G113" s="1"/>
-      <c r="H113" s="1"/>
+      <c r="G113" s="29"/>
+      <c r="H113" s="29"/>
     </row>
     <row r="114" spans="1:13">
-      <c r="A114" s="18" t="s">
+      <c r="A114" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="B114" s="18" t="s">
+      <c r="B114" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="C114" s="18" t="s">
+      <c r="C114" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="D114" s="18" t="s">
+      <c r="D114" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="E114" s="18"/>
-      <c r="F114" s="18"/>
-      <c r="G114" s="18"/>
-      <c r="H114" s="18"/>
-      <c r="I114" s="18"/>
-      <c r="J114" s="18"/>
-      <c r="K114" s="18"/>
-      <c r="L114" s="18"/>
-      <c r="M114" s="18"/>
+      <c r="E114" s="17"/>
+      <c r="F114" s="17"/>
+      <c r="G114" s="17"/>
+      <c r="H114" s="17"/>
+      <c r="I114" s="17"/>
+      <c r="J114" s="17"/>
+      <c r="K114" s="17"/>
+      <c r="L114" s="17"/>
+      <c r="M114" s="17"/>
     </row>
     <row r="115" spans="1:13">
       <c r="A115" t="s">
@@ -3292,7 +3310,7 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="H116" s="10" t="s">
+      <c r="H116" s="9" t="s">
         <v>129</v>
       </c>
     </row>
@@ -3459,25 +3477,25 @@
       </c>
     </row>
     <row r="126" spans="1:13">
-      <c r="A126" s="23" t="s">
+      <c r="A126" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="B126" s="23">
+      <c r="B126" s="22">
         <v>9</v>
       </c>
-      <c r="C126" s="23">
-        <v>0</v>
-      </c>
-      <c r="D126" s="23">
-        <v>1</v>
-      </c>
-      <c r="E126" s="25">
+      <c r="C126" s="22">
+        <v>0</v>
+      </c>
+      <c r="D126" s="22">
+        <v>1</v>
+      </c>
+      <c r="E126" s="24">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="F126" s="23"/>
-      <c r="G126" s="23"/>
-      <c r="H126" s="23"/>
+      <c r="F126" s="22"/>
+      <c r="G126" s="22"/>
+      <c r="H126" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3492,10 +3510,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L53"/>
+  <dimension ref="A1:L59"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.6"/>
@@ -3511,8 +3529,8 @@
     <col min="12" max="12" width="2.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="26" customFormat="1">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:12" s="25" customFormat="1">
+      <c r="A1" s="25" t="s">
         <v>140</v>
       </c>
     </row>
@@ -3532,7 +3550,7 @@
       <c r="G3" t="s">
         <v>145</v>
       </c>
-      <c r="I3" s="27" t="s">
+      <c r="I3" s="26" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3554,7 +3572,7 @@
         <f>SUM(C4:C59)</f>
         <v>40</v>
       </c>
-      <c r="I4" s="28">
+      <c r="I4" s="27">
         <v>5.5830000000000002</v>
       </c>
       <c r="J4" t="s">
@@ -3666,28 +3684,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="7" customFormat="1">
-      <c r="A14" s="29" t="s">
+    <row r="14" spans="1:12" s="6" customFormat="1">
+      <c r="A14" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="6">
         <v>12</v>
       </c>
-      <c r="C14" s="7">
-        <v>0</v>
-      </c>
-      <c r="E14" s="7" t="s">
+      <c r="C14" s="6">
+        <v>0</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="28" t="s">
         <v>59</v>
       </c>
       <c r="B15">
@@ -3716,7 +3734,7 @@
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="28" t="s">
         <v>60</v>
       </c>
       <c r="B16">
@@ -3737,7 +3755,7 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="28" t="s">
         <v>61</v>
       </c>
       <c r="B17">
@@ -3748,7 +3766,7 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="28" t="s">
         <v>62</v>
       </c>
       <c r="B18">
@@ -3757,12 +3775,12 @@
       <c r="C18">
         <v>2</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="6" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="28" t="s">
         <v>64</v>
       </c>
       <c r="B19">
@@ -3777,7 +3795,7 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="28" t="s">
         <v>67</v>
       </c>
       <c r="B20">
@@ -3788,7 +3806,7 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="28" t="s">
         <v>69</v>
       </c>
       <c r="B21">
@@ -3799,7 +3817,7 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="28" t="s">
         <v>71</v>
       </c>
       <c r="B22">
@@ -3810,7 +3828,7 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="28" t="s">
         <v>72</v>
       </c>
       <c r="B23">
@@ -3821,7 +3839,7 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="28" t="s">
         <v>73</v>
       </c>
       <c r="B24">
@@ -3832,7 +3850,7 @@
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="28" t="s">
         <v>74</v>
       </c>
       <c r="B25">
@@ -3843,7 +3861,7 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="15" t="s">
         <v>75</v>
       </c>
       <c r="B26">
@@ -3854,7 +3872,7 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="28" t="s">
         <v>76</v>
       </c>
       <c r="B27">
@@ -3865,7 +3883,7 @@
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="28" t="s">
         <v>77</v>
       </c>
       <c r="B28">
@@ -3876,7 +3894,7 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="28" t="s">
         <v>78</v>
       </c>
       <c r="B29">
@@ -3887,7 +3905,7 @@
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="29" t="s">
+      <c r="A30" s="28" t="s">
         <v>80</v>
       </c>
       <c r="B30">
@@ -3898,7 +3916,7 @@
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="28" t="s">
         <v>81</v>
       </c>
       <c r="B31">
@@ -3909,7 +3927,7 @@
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="15" t="s">
         <v>82</v>
       </c>
       <c r="B32">
@@ -3920,7 +3938,7 @@
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="29" t="s">
+      <c r="A33" s="28" t="s">
         <v>84</v>
       </c>
       <c r="B33">
@@ -3931,7 +3949,7 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="29" t="s">
+      <c r="A34" s="28" t="s">
         <v>85</v>
       </c>
       <c r="B34">
@@ -3942,7 +3960,7 @@
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="28" t="s">
         <v>86</v>
       </c>
       <c r="B35">
@@ -3953,7 +3971,7 @@
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="29" t="s">
+      <c r="A36" s="28" t="s">
         <v>88</v>
       </c>
       <c r="B36">
@@ -3964,7 +3982,7 @@
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="29" t="s">
+      <c r="A37" s="28" t="s">
         <v>90</v>
       </c>
       <c r="B37">
@@ -3975,7 +3993,7 @@
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="28" t="s">
         <v>91</v>
       </c>
       <c r="D38" t="s">
@@ -3983,7 +4001,7 @@
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="29" t="s">
+      <c r="A39" s="28" t="s">
         <v>92</v>
       </c>
       <c r="B39">
@@ -3994,7 +4012,7 @@
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="29" t="s">
+      <c r="A40" s="28" t="s">
         <v>93</v>
       </c>
       <c r="B40">
@@ -4005,7 +4023,7 @@
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="29" t="s">
+      <c r="A41" s="28" t="s">
         <v>94</v>
       </c>
       <c r="B41">
@@ -4016,7 +4034,7 @@
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="29" t="s">
+      <c r="A42" s="28" t="s">
         <v>95</v>
       </c>
       <c r="B42">
@@ -4027,7 +4045,7 @@
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="29" t="s">
+      <c r="A43" s="28" t="s">
         <v>96</v>
       </c>
       <c r="B43">
@@ -4038,7 +4056,7 @@
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="29" t="s">
+      <c r="A44" s="28" t="s">
         <v>97</v>
       </c>
       <c r="B44">
@@ -4049,7 +4067,7 @@
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="29" t="s">
+      <c r="A45" s="28" t="s">
         <v>98</v>
       </c>
       <c r="B45">
@@ -4060,7 +4078,7 @@
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="29" t="s">
+      <c r="A46" s="28" t="s">
         <v>99</v>
       </c>
       <c r="B46">
@@ -4071,7 +4089,7 @@
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="29" t="s">
+      <c r="A47" s="28" t="s">
         <v>100</v>
       </c>
       <c r="B47">
@@ -4082,7 +4100,7 @@
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="29" t="s">
+      <c r="A48" s="28" t="s">
         <v>101</v>
       </c>
       <c r="B48">
@@ -4093,7 +4111,7 @@
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="29" t="s">
+      <c r="A49" s="28" t="s">
         <v>102</v>
       </c>
       <c r="B49">
@@ -4104,7 +4122,7 @@
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="29" t="s">
+      <c r="A50" s="28" t="s">
         <v>103</v>
       </c>
       <c r="B50">
@@ -4115,7 +4133,7 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="29" t="s">
+      <c r="A51" s="28" t="s">
         <v>104</v>
       </c>
       <c r="B51">
@@ -4126,7 +4144,7 @@
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="29" t="s">
+      <c r="A52" s="28" t="s">
         <v>105</v>
       </c>
       <c r="B52">
@@ -4137,7 +4155,7 @@
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="29" t="s">
+      <c r="A53" s="28" t="s">
         <v>106</v>
       </c>
       <c r="B53">
@@ -4146,6 +4164,18 @@
       <c r="C53">
         <v>3</v>
       </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="28"/>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="28"/>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="28"/>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -4441,10 +4471,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.3984375" defaultRowHeight="15.6"/>
@@ -4453,15 +4483,24 @@
     <col min="4" max="4" width="20.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="C1" t="s">
         <v>107</v>
       </c>
       <c r="D1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>155</v>
       </c>
@@ -4479,7 +4518,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>156</v>
       </c>
@@ -4497,7 +4536,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>157</v>
       </c>
@@ -4515,7 +4554,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>158</v>
       </c>
@@ -4533,7 +4572,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>159</v>
       </c>
@@ -4551,7 +4590,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>160</v>
       </c>
@@ -4569,7 +4608,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>161</v>
       </c>
@@ -4587,7 +4626,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>168</v>
       </c>
@@ -4604,59 +4643,239 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G9" s="30"/>
-    </row>
-    <row r="10" spans="1:7">
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>162</v>
       </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>163</v>
       </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>164</v>
       </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>165</v>
       </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>166</v>
       </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>167</v>
       </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
       <c r="E15">
         <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="B17" t="s">
+        <v>172</v>
+      </c>
+      <c r="C17" t="s">
+        <v>171</v>
+      </c>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18">
+        <v>13</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19">
+        <v>20</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="I19" s="12"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20">
+        <v>16</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21">
+        <v>13</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22">
+        <v>14</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23">
+        <v>9</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="I23" s="12"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" t="s">
+        <v>118</v>
+      </c>
+      <c r="B26">
+        <v>12</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="E26" s="12"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" t="s">
+        <v>119</v>
+      </c>
+      <c r="B27">
+        <v>10</v>
+      </c>
+      <c r="C27">
         <v>0</v>
       </c>
     </row>

--- a/Bubble-chambers/Foglio Lavoro Bolle .xlsx
+++ b/Bubble-chambers/Foglio Lavoro Bolle .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giogi/Documents/LabFNS2/Bubble-chambers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA8D426-724F-E142-BD16-6B6AB0DEA5D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E5754D7-E09E-7A45-8285-1F91CDC57AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sez Urto" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="176">
   <si>
     <t>MISURA DELLA SEZIONE D'URTO ANTIPROTONI-DEUTERIO P_lab=1,6 GeV/c</t>
   </si>
@@ -565,6 +565,9 @@
   </si>
   <si>
     <t>047-2</t>
+  </si>
+  <si>
+    <t>Anti-p entranti</t>
   </si>
 </sst>
 </file>
@@ -1240,8 +1243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M126"/>
   <sheetViews>
-    <sheetView topLeftCell="C103" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J60" sqref="J60"/>
+    <sheetView topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G127" sqref="G127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3418,7 +3421,6 @@
       </c>
       <c r="F126" s="23"/>
       <c r="G126" s="23"/>
-      <c r="H126" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3435,7 +3437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -4110,7 +4112,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -4938,17 +4940,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17:K17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="24.1640625" customWidth="1"/>
     <col min="4" max="4" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>175</v>
+      </c>
       <c r="C1" t="s">
         <v>107</v>
       </c>
@@ -4969,126 +4975,252 @@
       <c r="A2" t="s">
         <v>155</v>
       </c>
+      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
       <c r="E2">
         <f t="shared" ref="E2:E15" si="0">B2-C2-D2</f>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>156</v>
       </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
       <c r="E3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>157</v>
       </c>
+      <c r="B4">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>158</v>
       </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>159</v>
       </c>
+      <c r="B6">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>160</v>
       </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>161</v>
       </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>161</v>
       </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>162</v>
       </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>163</v>
       </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>164</v>
       </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>165</v>
       </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>166</v>
       </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>167</v>
       </c>
+      <c r="B15">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -5124,7 +5256,7 @@
         <v>111</v>
       </c>
       <c r="B19">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -5135,7 +5267,7 @@
         <v>112</v>
       </c>
       <c r="B20">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -5146,10 +5278,10 @@
         <v>113</v>
       </c>
       <c r="B21">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -5160,7 +5292,7 @@
         <v>14</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -5168,10 +5300,10 @@
         <v>115</v>
       </c>
       <c r="B23">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -5182,7 +5314,7 @@
         <v>10</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -5190,7 +5322,7 @@
         <v>117</v>
       </c>
       <c r="B25">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -5201,10 +5333,10 @@
         <v>118</v>
       </c>
       <c r="B26">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -5212,7 +5344,7 @@
         <v>119</v>
       </c>
       <c r="B27">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C27">
         <v>0</v>

--- a/Bubble-chambers/Foglio Lavoro Bolle .xlsx
+++ b/Bubble-chambers/Foglio Lavoro Bolle .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/glucia/Projects/LabFNS2/Bubble-chambers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD03E3E8-60C8-1242-B5AE-A2342529F5C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B5663A-E7B3-454D-95D3-4BBF3C24B4AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30240" yWindow="-1720" windowWidth="30240" windowHeight="13160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sez Urto" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="210">
   <si>
     <t>MISURA DELLA SEZIONE D'URTO ANTIPROTONI-DEUTERIO P_lab=1,6 GeV/c</t>
   </si>
@@ -667,13 +667,16 @@
   </si>
   <si>
     <t>fotograma assente</t>
+  </si>
+  <si>
+    <t>casa giorgio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -759,6 +762,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -881,9 +891,6 @@
   </cellStyleXfs>
   <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -912,11 +919,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1052,9 +1062,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1092,7 +1102,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1198,7 +1208,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1340,7 +1350,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1348,10 +1358,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M142"/>
+  <dimension ref="A1:S142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B123" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D144" sqref="D144"/>
+    <sheetView tabSelected="1" topLeftCell="C25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R45" sqref="R45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1368,47 +1378,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
+      <c r="A2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
+      <c r="A4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
+      <c r="A5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
+      <c r="A6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
+      <c r="A7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
+      <c r="A8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
+      <c r="A9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
+      <c r="A10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
+      <c r="A11" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
+      <c r="A13" s="1"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1441,70 +1451,70 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>-5.1700000000000003E-2</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>8.5736000000000008</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <v>-8.7030999999999992</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <v>-7.4099999999999999E-2</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
         <v>-2.9499999999999998E-2</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="2">
         <v>-4.99E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>29.970300000000002</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>14.975199999999999</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>14.985900000000001</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <v>-5.5999999999999999E-3</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
         <v>23.232700000000001</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="2">
         <v>-4.9466000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -1533,80 +1543,83 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <v>-2.9999999999999997E-4</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>8.6404999999999994</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="2">
         <v>-8.641</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="2">
         <v>-2.9999999999999997E-4</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="2">
         <v>8.6417999999999999</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="2">
         <v>-8.6408000000000005</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="2">
         <v>-1.6500000000000001E-2</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="2">
         <v>-1.3899999999999999E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <v>29.970300000000002</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <v>14.9801</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="2">
         <v>14.9838</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="2">
         <v>-4.3E-3</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="2">
         <v>-14.9252</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="2">
         <v>-14.9831</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="2">
         <v>23.238299999999999</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="2">
         <v>-4.9396000000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="4"/>
-      <c r="B26" s="5" t="s">
+    <row r="26" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3"/>
+      <c r="B26" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N26" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B27">
         <f>I27/I29</f>
         <v>1.6502294351246898</v>
@@ -1623,7 +1636,7 @@
         <f>I31/D27</f>
         <v>39.429140914360879</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="H27" s="4" t="s">
         <v>19</v>
       </c>
       <c r="I27">
@@ -1635,8 +1648,14 @@
       <c r="K27" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N27">
+        <v>20.9</v>
+      </c>
+      <c r="O27">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -1659,7 +1678,7 @@
       <c r="F28" t="s">
         <v>22</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H28" s="3" t="s">
         <v>23</v>
       </c>
       <c r="I28">
@@ -1668,27 +1687,79 @@
       <c r="J28">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H29" s="4" t="s">
+      <c r="M28">
+        <v>27.4</v>
+      </c>
+      <c r="N28">
+        <v>27.4</v>
+      </c>
+      <c r="O28">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B29" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="H29" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I29">
         <f>H24-I24</f>
         <v>28.177900000000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H30" s="4" t="s">
+      <c r="N29">
+        <f>H24-I24</f>
+        <v>28.177900000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <f>N27/N29</f>
+        <v>0.7417160256796993</v>
+      </c>
+      <c r="C30">
+        <f>N28/N30</f>
+        <v>0.97234494824214923</v>
+      </c>
+      <c r="D30">
+        <f>(B30+C30)/2</f>
+        <v>0.85703048696092421</v>
+      </c>
+      <c r="E30">
+        <f>N31/D30</f>
+        <v>47.839605035975076</v>
+      </c>
+      <c r="H30" s="3" t="s">
         <v>25</v>
       </c>
       <c r="I30">
         <f>H18-I18</f>
         <v>28.179300000000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H31" s="4" t="s">
+      <c r="N30">
+        <f>H18-I18</f>
+        <v>28.179300000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <f>O27/N29</f>
+        <v>7.097761011288989E-3</v>
+      </c>
+      <c r="C31">
+        <f>O28/N30</f>
+        <v>7.0974083813295577E-3</v>
+      </c>
+      <c r="D31">
+        <f>SQRT(B31*B31+C31*C31)</f>
+        <v>1.0037500540709383E-2</v>
+      </c>
+      <c r="E31">
+        <f>SQRT(O31*O31/(D30*D30) + D31*D31*N31*N31/(E30*E30*E30*E30))</f>
+        <v>0.58340984522369499</v>
+      </c>
+      <c r="H31" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I31">
@@ -1698,48 +1769,54 @@
         <f>0.5*SQRT(J27*J27+J28+J28)</f>
         <v>0.22912878474779202</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="H33" s="6" t="s">
+      <c r="N31">
+        <v>41</v>
+      </c>
+      <c r="O31">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="H33" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H34" s="7" t="s">
+    <row r="34" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H34" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="J34" s="7">
+      <c r="J34" s="6">
         <v>1.6</v>
       </c>
-      <c r="K34" s="8">
+      <c r="K34" s="7">
         <v>2.0390000000000001E-20</v>
       </c>
     </row>
-    <row r="35" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H35" s="7" t="s">
+    <row r="35" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H35" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J35" s="9">
+      <c r="J35" s="8">
         <v>2.0129999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H36" s="7" t="s">
+    <row r="36" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H36" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J36" s="7">
+      <c r="J36" s="6">
         <v>0.14099999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H37" s="7" t="s">
+    <row r="37" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H37" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="J37" s="8">
+      <c r="J37" s="7">
         <v>6.0220000000000003E+23</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>32</v>
       </c>
@@ -1759,7 +1836,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -1779,11 +1856,11 @@
         <f t="shared" ref="F39:F70" si="0">B39-(D39+C39+E39)</f>
         <v>0</v>
       </c>
-      <c r="H39" s="7" t="s">
+      <c r="H39" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -1804,7 +1881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -1824,8 +1901,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O41" s="32" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -1845,17 +1925,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H42" s="10" t="s">
+      <c r="H42" s="9" t="s">
         <v>43</v>
       </c>
       <c r="K42" t="s">
         <v>44</v>
       </c>
-      <c r="L42" s="10" t="s">
+      <c r="L42" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -1875,19 +1955,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H43" s="11">
+      <c r="H43" s="10">
         <f>$J$35/($J$36*$J$37*$E$27)*LN(I54/I55)</f>
         <v>2.4709991721311165E-25</v>
       </c>
       <c r="I43" t="s">
         <v>47</v>
       </c>
-      <c r="J43" s="11">
+      <c r="J43" s="10">
         <f>(K34/E27)*LN(I54/I55)</f>
         <v>2.1252298864048142E-22</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O43" s="10">
+        <f>$J$35/($J$36*$J$37*$E$30)*LN(I54/I55)</f>
+        <v>2.0365840078311809E-25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -1907,14 +1991,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H44" s="11">
+      <c r="H44" s="10">
         <f>H43*1E+24</f>
         <v>0.24709991721311164</v>
       </c>
       <c r="I44" t="s">
         <v>49</v>
       </c>
-      <c r="J44" s="11">
+      <c r="J44" s="10">
         <f>J43*1E+24</f>
         <v>212.52298864048143</v>
       </c>
@@ -1922,15 +2006,27 @@
         <f>SQRT(POWER(I63*E28,2) + POWER(I64*SQRT(I54),2) + POWER(I65*SQRT(I55),2))</f>
         <v>3.7800690905452697E-2</v>
       </c>
-      <c r="L44" s="12">
+      <c r="L44" s="11">
         <f>K44/H44*100</f>
         <v>15.297735155795881</v>
       </c>
       <c r="M44" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O44" s="10">
+        <f>O43*1E+24</f>
+        <v>0.20365840078311809</v>
+      </c>
+      <c r="Q44">
+        <f>SQRT(POWER(P63*E31,2) + POWER(P64*SQRT(I54),2) + POWER(P65*SQRT(I55),2))</f>
+        <v>3.117140845453641E-2</v>
+      </c>
+      <c r="R44" s="10">
+        <f>Q44/O44</f>
+        <v>0.15305731722666219</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -1951,7 +2047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -1971,17 +2067,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H46" s="10" t="s">
+      <c r="H46" s="9" t="s">
         <v>181</v>
       </c>
       <c r="K46" t="s">
         <v>44</v>
       </c>
-      <c r="L46" s="10" t="s">
+      <c r="L46" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -2001,19 +2097,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H47" s="11">
+      <c r="H47" s="10">
         <f>$J$35/($J$36*$J$37*$E$27)*LN(I54/I56)</f>
         <v>1.2644346472919171E-25</v>
       </c>
       <c r="I47" t="s">
         <v>47</v>
       </c>
-      <c r="J47" s="11" t="e">
+      <c r="J47" s="10" t="e">
         <f>(K38/E31)*LN(I61/I62)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -2033,7 +2129,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H48" s="11">
+      <c r="H48" s="10">
         <f>H47*1E+24</f>
         <v>0.12644346472919171</v>
       </c>
@@ -2044,7 +2140,7 @@
         <f>SQRT(POWER(L63*E28, 2)+POWER(L64*SQRT(I54), 2) + POWER(L65*SQRT(I56), 2))</f>
         <v>3.5607580098720899E-2</v>
       </c>
-      <c r="L48" s="12">
+      <c r="L48" s="11">
         <f>K48/H48*100</f>
         <v>28.160870294864882</v>
       </c>
@@ -2052,7 +2148,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>57</v>
       </c>
@@ -2073,7 +2169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>59</v>
       </c>
@@ -2093,17 +2189,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H50" s="10" t="s">
+      <c r="H50" s="9" t="s">
         <v>190</v>
       </c>
       <c r="K50" t="s">
         <v>44</v>
       </c>
-      <c r="L50" s="10" t="s">
+      <c r="L50" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>60</v>
       </c>
@@ -2123,19 +2219,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H51" s="11">
+      <c r="H51" s="10">
         <f>$J$35/($J$36*$J$37*$E$27)*LN(I54/I57)</f>
         <v>8.596917223074239E-26</v>
       </c>
       <c r="I51" t="s">
         <v>47</v>
       </c>
-      <c r="J51" s="11" t="e">
+      <c r="J51" s="10" t="e">
         <f>(K42/E35)*LN(I65/I66)</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>61</v>
       </c>
@@ -2155,7 +2251,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H52" s="11">
+      <c r="H52" s="10">
         <f>H51*1E+24</f>
         <v>8.5969172230742394E-2</v>
       </c>
@@ -2166,7 +2262,7 @@
         <f>SQRT(POWER(L63*E28,2)+POWER(L64*SQRT(I54),2)+POWER(L65*SQRT(I57),2))</f>
         <v>3.6284864936366963E-2</v>
       </c>
-      <c r="L52" s="12">
+      <c r="L52" s="11">
         <f>K52/H52*100</f>
         <v>42.20683297842848</v>
       </c>
@@ -2174,7 +2270,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>62</v>
       </c>
@@ -2195,7 +2291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>64</v>
       </c>
@@ -2230,7 +2326,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>67</v>
       </c>
@@ -2258,7 +2354,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>69</v>
       </c>
@@ -2286,7 +2382,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>71</v>
       </c>
@@ -2314,7 +2410,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>72</v>
       </c>
@@ -2335,7 +2431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>73</v>
       </c>
@@ -2356,7 +2452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>74</v>
       </c>
@@ -2380,7 +2476,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>75</v>
       </c>
@@ -2401,7 +2497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>76</v>
       </c>
@@ -2427,15 +2523,18 @@
       <c r="K62" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A63" s="14" t="s">
+      <c r="O62" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A63" s="13" t="s">
         <v>77</v>
       </c>
       <c r="B63">
         <v>9</v>
       </c>
-      <c r="E63" s="14"/>
+      <c r="E63" s="13"/>
       <c r="F63">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2443,7 +2542,7 @@
       <c r="H63" t="s">
         <v>184</v>
       </c>
-      <c r="I63" s="11">
+      <c r="I63" s="10">
         <f>H44/E27</f>
         <v>6.2669363694686266E-3</v>
       </c>
@@ -2453,15 +2552,26 @@
       <c r="K63" t="s">
         <v>187</v>
       </c>
-      <c r="L63" s="11">
+      <c r="L63" s="10">
         <f>H48/E27</f>
         <v>3.2068531496494889E-3</v>
       </c>
       <c r="M63" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O63" t="s">
+        <v>184</v>
+      </c>
+      <c r="P63" s="10">
+        <f>O44/E30</f>
+        <v>4.2571087413863107E-3</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>66</v>
+      </c>
+      <c r="S63" s="10"/>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>78</v>
       </c>
@@ -2474,7 +2584,7 @@
       <c r="D64">
         <v>1</v>
       </c>
-      <c r="E64" s="15">
+      <c r="E64" s="14">
         <v>6</v>
       </c>
       <c r="F64">
@@ -2484,7 +2594,7 @@
       <c r="H64" t="s">
         <v>185</v>
       </c>
-      <c r="I64" s="11">
+      <c r="I64" s="10">
         <f>H44/(LN(I54/I55)*I54)</f>
         <v>9.4242308897030612E-4</v>
       </c>
@@ -2494,15 +2604,26 @@
       <c r="K64" t="s">
         <v>188</v>
       </c>
-      <c r="L64" s="11">
+      <c r="L64" s="10">
         <f>H48/(LN(I54/I56)*I54)</f>
         <v>9.4242308897030623E-4</v>
       </c>
       <c r="M64" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O64" t="s">
+        <v>185</v>
+      </c>
+      <c r="P64" s="10">
+        <f>O44/(LN(I54/I55)*I54)</f>
+        <v>7.7673995736407488E-4</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>49</v>
+      </c>
+      <c r="S64" s="10"/>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>80</v>
       </c>
@@ -2525,7 +2646,7 @@
       <c r="H65" t="s">
         <v>186</v>
       </c>
-      <c r="I65" s="11">
+      <c r="I65" s="10">
         <f>H44/(LN(I54/I55)*I55)</f>
         <v>1.4214324604327551E-3</v>
       </c>
@@ -2535,15 +2656,26 @@
       <c r="K65" t="s">
         <v>189</v>
       </c>
-      <c r="L65" s="11">
+      <c r="L65" s="10">
         <f>H48/(LN(I54/I56)*I56)</f>
         <v>1.1629901948995269E-3</v>
       </c>
       <c r="M65" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O65" t="s">
+        <v>186</v>
+      </c>
+      <c r="P65" s="10">
+        <f>O44/(LN(I54/I55)*I55)</f>
+        <v>1.1715368624072809E-3</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>49</v>
+      </c>
+      <c r="S65" s="10"/>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>81</v>
       </c>
@@ -2564,7 +2696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>82</v>
       </c>
@@ -2588,7 +2720,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>84</v>
       </c>
@@ -2611,7 +2743,7 @@
       <c r="H68" t="s">
         <v>187</v>
       </c>
-      <c r="I68" s="11">
+      <c r="I68" s="10">
         <f>H52/E27</f>
         <v>2.1803460647916552E-3</v>
       </c>
@@ -2619,7 +2751,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>85</v>
       </c>
@@ -2642,7 +2774,7 @@
       <c r="H69" t="s">
         <v>188</v>
       </c>
-      <c r="I69" s="11">
+      <c r="I69" s="10">
         <f>H52/(LN(I54/I57)*I54)</f>
         <v>9.4242308897030623E-4</v>
       </c>
@@ -2650,7 +2782,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>86</v>
       </c>
@@ -2673,7 +2805,7 @@
       <c r="H70" t="s">
         <v>189</v>
       </c>
-      <c r="I70" s="11">
+      <c r="I70" s="10">
         <f>H52/(LN(I54/I57)*I57)</f>
         <v>1.0872801641284907E-3</v>
       </c>
@@ -2681,7 +2813,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>88</v>
       </c>
@@ -2698,11 +2830,11 @@
         <v>6</v>
       </c>
       <c r="F71">
-        <f t="shared" ref="F71:F102" si="1">B71-(D71+C71+E71)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" ref="F71:F88" si="1">B71-(D71+C71+E71)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>90</v>
       </c>
@@ -2723,7 +2855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>91</v>
       </c>
@@ -2747,7 +2879,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>92</v>
       </c>
@@ -2768,7 +2900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>93</v>
       </c>
@@ -2789,7 +2921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>94</v>
       </c>
@@ -2813,7 +2945,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>95</v>
       </c>
@@ -2834,7 +2966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>96</v>
       </c>
@@ -2855,7 +2987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>97</v>
       </c>
@@ -2879,7 +3011,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>98</v>
       </c>
@@ -2904,7 +3036,7 @@
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A81" s="16" t="s">
+      <c r="A81" s="15" t="s">
         <v>99</v>
       </c>
       <c r="B81">
@@ -3078,43 +3210,43 @@
       <c r="D92" t="s">
         <v>108</v>
       </c>
-      <c r="G92" s="1" t="s">
+      <c r="G92" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="H92" s="1"/>
+      <c r="H92" s="30"/>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="G93" s="1"/>
-      <c r="H93" s="1"/>
+      <c r="G93" s="30"/>
+      <c r="H93" s="30"/>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A94" s="17" t="s">
+      <c r="A94" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="B94" s="18">
+      <c r="B94" s="17">
         <v>11</v>
       </c>
-      <c r="C94" s="18">
-        <v>2</v>
-      </c>
-      <c r="D94" s="18">
+      <c r="C94" s="17">
+        <v>2</v>
+      </c>
+      <c r="D94" s="17">
         <v>3</v>
       </c>
-      <c r="E94" s="18">
+      <c r="E94" s="17">
         <f t="shared" ref="E94:E110" si="2">B94-C94-D94</f>
         <v>6</v>
       </c>
-      <c r="F94" s="18"/>
-      <c r="G94" s="18"/>
-      <c r="H94" s="18"/>
-      <c r="I94" s="18"/>
-      <c r="J94" s="18"/>
-      <c r="K94" s="18"/>
-      <c r="L94" s="18"/>
-      <c r="M94" s="19"/>
+      <c r="F94" s="17"/>
+      <c r="G94" s="17"/>
+      <c r="H94" s="17"/>
+      <c r="I94" s="17"/>
+      <c r="J94" s="17"/>
+      <c r="K94" s="17"/>
+      <c r="L94" s="17"/>
+      <c r="M94" s="18"/>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A95" s="20" t="s">
+      <c r="A95" s="19" t="s">
         <v>111</v>
       </c>
       <c r="B95">
@@ -3130,19 +3262,19 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="H95" s="10" t="s">
+      <c r="H95" s="9" t="s">
         <v>43</v>
       </c>
       <c r="K95" t="s">
         <v>44</v>
       </c>
-      <c r="L95" s="10" t="s">
+      <c r="L95" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="M95" s="21"/>
+      <c r="M95" s="20"/>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A96" s="20" t="s">
+      <c r="A96" s="19" t="s">
         <v>112</v>
       </c>
       <c r="B96">
@@ -3158,21 +3290,21 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="H96" s="11">
+      <c r="H96" s="10">
         <f>$J$35/($J$36*$J$37*$E$27)*LN(I101/I102)</f>
         <v>2.3351405523395175E-25</v>
       </c>
       <c r="I96" t="s">
         <v>47</v>
       </c>
-      <c r="J96" s="11">
+      <c r="J96" s="10">
         <f>(K87/E80)*LN(I101/I102)</f>
         <v>0</v>
       </c>
-      <c r="M96" s="21"/>
+      <c r="M96" s="20"/>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A97" s="20" t="s">
+      <c r="A97" s="19" t="s">
         <v>113</v>
       </c>
       <c r="B97">
@@ -3188,7 +3320,7 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="H97" s="11">
+      <c r="H97" s="10">
         <f>H96*1E+24</f>
         <v>0.23351405523395175</v>
       </c>
@@ -3199,16 +3331,16 @@
         <f>SQRT(POWER(I107*E81,2) + POWER(I108*SQRT(I101),2) + POWER(I109*SQRT(I102),2))</f>
         <v>0.10563968362764495</v>
       </c>
-      <c r="L97" s="12">
+      <c r="L97" s="11">
         <f>K97/H97*100</f>
         <v>45.239111419570548</v>
       </c>
-      <c r="M97" s="21" t="s">
+      <c r="M97" s="20" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A98" s="20" t="s">
+      <c r="A98" s="19" t="s">
         <v>114</v>
       </c>
       <c r="B98">
@@ -3224,10 +3356,10 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="M98" s="21"/>
+      <c r="M98" s="20"/>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A99" s="20" t="s">
+      <c r="A99" s="19" t="s">
         <v>115</v>
       </c>
       <c r="B99">
@@ -3243,10 +3375,10 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="M99" s="21"/>
+      <c r="M99" s="20"/>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A100" s="20" t="s">
+      <c r="A100" s="19" t="s">
         <v>116</v>
       </c>
       <c r="B100">
@@ -3262,10 +3394,10 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="M100" s="21"/>
+      <c r="M100" s="20"/>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A101" s="20" t="s">
+      <c r="A101" s="19" t="s">
         <v>117</v>
       </c>
       <c r="B101">
@@ -3292,10 +3424,10 @@
         <f>I107*E81</f>
         <v>2.961186191466085E-2</v>
       </c>
-      <c r="M101" s="21"/>
+      <c r="M101" s="20"/>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A102" s="20" t="s">
+      <c r="A102" s="19" t="s">
         <v>118</v>
       </c>
       <c r="B102">
@@ -3318,10 +3450,10 @@
         <f>SUM(E94:E110)</f>
         <v>59</v>
       </c>
-      <c r="M102" s="21"/>
+      <c r="M102" s="20"/>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A103" s="20" t="s">
+      <c r="A103" s="19" t="s">
         <v>119</v>
       </c>
       <c r="B103">
@@ -3337,10 +3469,10 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="M103" s="21"/>
+      <c r="M103" s="20"/>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A104" s="20" t="s">
+      <c r="A104" s="19" t="s">
         <v>120</v>
       </c>
       <c r="B104">
@@ -3356,10 +3488,10 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="M104" s="21"/>
+      <c r="M104" s="20"/>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A105" s="20" t="s">
+      <c r="A105" s="19" t="s">
         <v>121</v>
       </c>
       <c r="B105">
@@ -3375,10 +3507,10 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="M105" s="21"/>
+      <c r="M105" s="20"/>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A106" s="20"/>
+      <c r="A106" s="19"/>
       <c r="E106">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3386,10 +3518,10 @@
       <c r="H106" t="s">
         <v>63</v>
       </c>
-      <c r="M106" s="21"/>
+      <c r="M106" s="20"/>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A107" s="20"/>
+      <c r="A107" s="19"/>
       <c r="E107">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3397,17 +3529,17 @@
       <c r="H107" t="s">
         <v>65</v>
       </c>
-      <c r="I107" s="11">
+      <c r="I107" s="10">
         <f>H97/$E$27</f>
         <v>5.9223723829321699E-3</v>
       </c>
       <c r="J107" t="s">
         <v>66</v>
       </c>
-      <c r="M107" s="21"/>
+      <c r="M107" s="20"/>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A108" s="20"/>
+      <c r="A108" s="19"/>
       <c r="E108">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3415,17 +3547,17 @@
       <c r="H108" t="s">
         <v>68</v>
       </c>
-      <c r="I108" s="11">
+      <c r="I108" s="10">
         <f>$J$35/($J$36*$J$37*$E$27)/I101*1E+24</f>
         <v>6.9111026524489132E-3</v>
       </c>
       <c r="J108" t="s">
         <v>49</v>
       </c>
-      <c r="M108" s="21"/>
+      <c r="M108" s="20"/>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A109" s="20"/>
+      <c r="A109" s="19"/>
       <c r="E109">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3433,65 +3565,65 @@
       <c r="H109" t="s">
         <v>70</v>
       </c>
-      <c r="I109" s="11">
+      <c r="I109" s="10">
         <f>-$J$35/($J$36*$J$37*$E$27*I102)*1E+24</f>
         <v>-1.0190947979034836E-2</v>
       </c>
       <c r="J109" t="s">
         <v>49</v>
       </c>
-      <c r="M109" s="21"/>
+      <c r="M109" s="20"/>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A110" s="22"/>
-      <c r="B110" s="23"/>
-      <c r="C110" s="23"/>
-      <c r="D110" s="23"/>
-      <c r="E110" s="23">
+      <c r="A110" s="21"/>
+      <c r="B110" s="22"/>
+      <c r="C110" s="22"/>
+      <c r="D110" s="22"/>
+      <c r="E110" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F110" s="23"/>
-      <c r="G110" s="23"/>
-      <c r="H110" s="23"/>
-      <c r="I110" s="23"/>
-      <c r="J110" s="23"/>
-      <c r="K110" s="23"/>
-      <c r="L110" s="23"/>
-      <c r="M110" s="24"/>
+      <c r="F110" s="22"/>
+      <c r="G110" s="22"/>
+      <c r="H110" s="22"/>
+      <c r="I110" s="22"/>
+      <c r="J110" s="22"/>
+      <c r="K110" s="22"/>
+      <c r="L110" s="22"/>
+      <c r="M110" s="23"/>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="G112" s="1" t="s">
+      <c r="G112" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="H112" s="1"/>
+      <c r="H112" s="30"/>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="G113" s="1"/>
-      <c r="H113" s="1"/>
+      <c r="G113" s="30"/>
+      <c r="H113" s="30"/>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A114" s="18" t="s">
+      <c r="A114" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="B114" s="18" t="s">
+      <c r="B114" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="C114" s="18" t="s">
+      <c r="C114" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="D114" s="18" t="s">
+      <c r="D114" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="E114" s="18"/>
-      <c r="F114" s="18"/>
-      <c r="G114" s="18"/>
-      <c r="H114" s="18"/>
-      <c r="I114" s="18"/>
-      <c r="J114" s="18"/>
-      <c r="K114" s="18"/>
-      <c r="L114" s="18"/>
-      <c r="M114" s="19"/>
+      <c r="E114" s="17"/>
+      <c r="F114" s="17"/>
+      <c r="G114" s="17"/>
+      <c r="H114" s="17"/>
+      <c r="I114" s="17"/>
+      <c r="J114" s="17"/>
+      <c r="K114" s="17"/>
+      <c r="L114" s="17"/>
+      <c r="M114" s="18"/>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
@@ -3507,10 +3639,10 @@
         <v>1</v>
       </c>
       <c r="E115">
-        <f t="shared" ref="E115:E142" si="3">B115-C115-D115</f>
+        <f t="shared" ref="E115:E125" si="3">B115-C115-D115</f>
         <v>5</v>
       </c>
-      <c r="M115" s="21"/>
+      <c r="M115" s="20"/>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
@@ -3529,10 +3661,10 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="H116" s="10" t="s">
+      <c r="H116" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="M116" s="21"/>
+      <c r="M116" s="20"/>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
@@ -3551,7 +3683,7 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="M117" s="21"/>
+      <c r="M117" s="20"/>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
@@ -3570,7 +3702,7 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="M118" s="21"/>
+      <c r="M118" s="20"/>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
@@ -3589,7 +3721,7 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="M119" s="21"/>
+      <c r="M119" s="20"/>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
@@ -3608,7 +3740,7 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="M120" s="21"/>
+      <c r="M120" s="20"/>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
@@ -3627,7 +3759,7 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="M121" s="21"/>
+      <c r="M121" s="20"/>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
@@ -3646,7 +3778,7 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="M122" s="21"/>
+      <c r="M122" s="20"/>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
@@ -3665,7 +3797,7 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="M123" s="21"/>
+      <c r="M123" s="20"/>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
@@ -3684,7 +3816,7 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="M124" s="21"/>
+      <c r="M124" s="20"/>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
@@ -3703,68 +3835,68 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="M125" s="21"/>
+      <c r="M125" s="20"/>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A126" s="23" t="s">
+      <c r="A126" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="B126" s="23">
+      <c r="B126" s="22">
         <v>9</v>
       </c>
-      <c r="C126" s="23">
-        <v>0</v>
-      </c>
-      <c r="D126" s="23">
-        <v>1</v>
-      </c>
-      <c r="E126" s="25">
+      <c r="C126" s="22">
+        <v>0</v>
+      </c>
+      <c r="D126" s="22">
+        <v>1</v>
+      </c>
+      <c r="E126" s="24">
         <f>B126-C126-D126</f>
         <v>8</v>
       </c>
-      <c r="F126" s="23"/>
-      <c r="G126" s="23"/>
-      <c r="H126" s="23"/>
-      <c r="I126" s="23"/>
-      <c r="J126" s="23"/>
-      <c r="K126" s="23"/>
-      <c r="L126" s="23"/>
-      <c r="M126" s="24"/>
+      <c r="F126" s="22"/>
+      <c r="G126" s="22"/>
+      <c r="H126" s="22"/>
+      <c r="I126" s="22"/>
+      <c r="J126" s="22"/>
+      <c r="K126" s="22"/>
+      <c r="L126" s="22"/>
+      <c r="M126" s="23"/>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="G128" s="1" t="s">
+      <c r="G128" s="30" t="s">
         <v>194</v>
       </c>
-      <c r="H128" s="1"/>
+      <c r="H128" s="30"/>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="G129" s="30"/>
-      <c r="H129" s="30"/>
+      <c r="G129" s="31"/>
+      <c r="H129" s="31"/>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A130" s="18" t="s">
+      <c r="A130" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="B130" s="18" t="s">
+      <c r="B130" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="C130" s="18" t="s">
+      <c r="C130" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="D130" s="18" t="s">
+      <c r="D130" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="E130" s="18" t="s">
+      <c r="E130" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="F130" s="18"/>
-      <c r="G130" s="18"/>
-      <c r="H130" s="18"/>
-      <c r="I130" s="18"/>
-      <c r="J130" s="18"/>
-      <c r="K130" s="18"/>
-      <c r="L130" s="18"/>
-      <c r="M130" s="19"/>
+      <c r="F130" s="17"/>
+      <c r="G130" s="17"/>
+      <c r="H130" s="17"/>
+      <c r="I130" s="17"/>
+      <c r="J130" s="17"/>
+      <c r="K130" s="17"/>
+      <c r="L130" s="17"/>
+      <c r="M130" s="18"/>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
@@ -3783,7 +3915,7 @@
         <f>B131-C131-D131</f>
         <v>3</v>
       </c>
-      <c r="M131" s="21"/>
+      <c r="M131" s="20"/>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
@@ -3802,8 +3934,7 @@
         <f t="shared" ref="E132:E142" si="4">B132-C132-D132</f>
         <v>3</v>
       </c>
-      <c r="H132" s="31"/>
-      <c r="M132" s="21"/>
+      <c r="M132" s="20"/>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
@@ -3822,7 +3953,7 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="M133" s="21"/>
+      <c r="M133" s="20"/>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
@@ -3841,7 +3972,7 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="M134" s="21"/>
+      <c r="M134" s="20"/>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
@@ -3860,7 +3991,7 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="M135" s="21"/>
+      <c r="M135" s="20"/>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
@@ -3879,7 +4010,7 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="M136" s="21"/>
+      <c r="M136" s="20"/>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
@@ -3898,7 +4029,7 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="M137" s="21"/>
+      <c r="M137" s="20"/>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
@@ -3917,7 +4048,7 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="M138" s="21"/>
+      <c r="M138" s="20"/>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
@@ -3939,7 +4070,7 @@
       <c r="F139" t="s">
         <v>208</v>
       </c>
-      <c r="M139" s="21"/>
+      <c r="M139" s="20"/>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
@@ -3958,10 +4089,10 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="M140" s="21"/>
+      <c r="M140" s="20"/>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A141" s="32" t="s">
+      <c r="A141" s="29" t="s">
         <v>205</v>
       </c>
       <c r="B141">
@@ -3977,33 +4108,33 @@
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="M141" s="21"/>
+      <c r="M141" s="20"/>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A142" s="23" t="s">
+      <c r="A142" s="22" t="s">
         <v>206</v>
       </c>
-      <c r="B142" s="23">
+      <c r="B142" s="22">
         <v>11</v>
       </c>
-      <c r="C142" s="23">
+      <c r="C142" s="22">
         <v>5</v>
       </c>
-      <c r="D142" s="23">
-        <v>1</v>
-      </c>
-      <c r="E142" s="23">
+      <c r="D142" s="22">
+        <v>1</v>
+      </c>
+      <c r="E142" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="F142" s="23"/>
-      <c r="G142" s="23"/>
-      <c r="H142" s="23"/>
-      <c r="I142" s="23"/>
-      <c r="J142" s="23"/>
-      <c r="K142" s="23"/>
-      <c r="L142" s="23"/>
-      <c r="M142" s="24"/>
+      <c r="F142" s="22"/>
+      <c r="G142" s="22"/>
+      <c r="H142" s="22"/>
+      <c r="I142" s="22"/>
+      <c r="J142" s="22"/>
+      <c r="K142" s="22"/>
+      <c r="L142" s="22"/>
+      <c r="M142" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4039,8 +4170,8 @@
     <col min="12" max="12" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:12" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="25" t="s">
         <v>140</v>
       </c>
     </row>
@@ -4060,7 +4191,7 @@
       <c r="G3" t="s">
         <v>145</v>
       </c>
-      <c r="I3" s="27" t="s">
+      <c r="I3" s="26" t="s">
         <v>146</v>
       </c>
     </row>
@@ -4082,7 +4213,7 @@
         <f>SUM(C4:C59)</f>
         <v>40</v>
       </c>
-      <c r="I4" s="28">
+      <c r="I4" s="27">
         <v>5.5830000000000002</v>
       </c>
       <c r="J4" t="s">
@@ -4194,28 +4325,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="29" t="s">
+    <row r="14" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="6">
         <v>12</v>
       </c>
-      <c r="C14" s="7">
-        <v>0</v>
-      </c>
-      <c r="E14" s="7" t="s">
+      <c r="C14" s="6">
+        <v>0</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="28" t="s">
         <v>59</v>
       </c>
       <c r="B15">
@@ -4244,7 +4375,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="28" t="s">
         <v>60</v>
       </c>
       <c r="B16">
@@ -4265,7 +4396,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="28" t="s">
         <v>61</v>
       </c>
       <c r="B17">
@@ -4276,7 +4407,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="28" t="s">
         <v>62</v>
       </c>
       <c r="B18">
@@ -4285,12 +4416,12 @@
       <c r="C18">
         <v>2</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="6" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="28" t="s">
         <v>64</v>
       </c>
       <c r="B19">
@@ -4305,7 +4436,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="28" t="s">
         <v>67</v>
       </c>
       <c r="B20">
@@ -4316,7 +4447,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="28" t="s">
         <v>69</v>
       </c>
       <c r="B21">
@@ -4327,7 +4458,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="28" t="s">
         <v>71</v>
       </c>
       <c r="B22">
@@ -4336,12 +4467,12 @@
       <c r="C22">
         <v>0</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="6" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="28" t="s">
         <v>72</v>
       </c>
       <c r="B23">
@@ -4359,7 +4490,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="28" t="s">
         <v>73</v>
       </c>
       <c r="B24">
@@ -4377,7 +4508,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="28" t="s">
         <v>74</v>
       </c>
       <c r="B25">
@@ -4395,7 +4526,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="15" t="s">
         <v>75</v>
       </c>
       <c r="B26">
@@ -4413,7 +4544,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="28" t="s">
         <v>76</v>
       </c>
       <c r="B27">
@@ -4431,7 +4562,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="28" t="s">
         <v>77</v>
       </c>
       <c r="B28">
@@ -4442,7 +4573,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="28" t="s">
         <v>78</v>
       </c>
       <c r="B29">
@@ -4453,7 +4584,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="29" t="s">
+      <c r="A30" s="28" t="s">
         <v>80</v>
       </c>
       <c r="B30">
@@ -4464,7 +4595,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="28" t="s">
         <v>81</v>
       </c>
       <c r="B31">
@@ -4475,7 +4606,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="15" t="s">
         <v>82</v>
       </c>
       <c r="B32">
@@ -4486,7 +4617,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="29" t="s">
+      <c r="A33" s="28" t="s">
         <v>84</v>
       </c>
       <c r="B33">
@@ -4497,7 +4628,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="29" t="s">
+      <c r="A34" s="28" t="s">
         <v>85</v>
       </c>
       <c r="B34">
@@ -4508,7 +4639,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="28" t="s">
         <v>86</v>
       </c>
       <c r="B35">
@@ -4519,7 +4650,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="29" t="s">
+      <c r="A36" s="28" t="s">
         <v>88</v>
       </c>
       <c r="B36">
@@ -4530,7 +4661,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="29" t="s">
+      <c r="A37" s="28" t="s">
         <v>90</v>
       </c>
       <c r="B37">
@@ -4541,7 +4672,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="28" t="s">
         <v>91</v>
       </c>
       <c r="D38" t="s">
@@ -4549,7 +4680,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="29" t="s">
+      <c r="A39" s="28" t="s">
         <v>92</v>
       </c>
       <c r="B39">
@@ -4560,7 +4691,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="29" t="s">
+      <c r="A40" s="28" t="s">
         <v>93</v>
       </c>
       <c r="B40">
@@ -4571,7 +4702,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="29" t="s">
+      <c r="A41" s="28" t="s">
         <v>94</v>
       </c>
       <c r="B41">
@@ -4582,7 +4713,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="29" t="s">
+      <c r="A42" s="28" t="s">
         <v>95</v>
       </c>
       <c r="B42">
@@ -4593,7 +4724,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="29" t="s">
+      <c r="A43" s="28" t="s">
         <v>96</v>
       </c>
       <c r="B43">
@@ -4604,7 +4735,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="29" t="s">
+      <c r="A44" s="28" t="s">
         <v>97</v>
       </c>
       <c r="B44">
@@ -4615,7 +4746,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="29" t="s">
+      <c r="A45" s="28" t="s">
         <v>98</v>
       </c>
       <c r="B45">
@@ -4626,7 +4757,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="29" t="s">
+      <c r="A46" s="28" t="s">
         <v>99</v>
       </c>
       <c r="B46">
@@ -4637,7 +4768,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="29" t="s">
+      <c r="A47" s="28" t="s">
         <v>100</v>
       </c>
       <c r="B47">
@@ -4648,7 +4779,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="29" t="s">
+      <c r="A48" s="28" t="s">
         <v>101</v>
       </c>
       <c r="B48">
@@ -4659,7 +4790,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="29" t="s">
+      <c r="A49" s="28" t="s">
         <v>102</v>
       </c>
       <c r="B49">
@@ -4670,7 +4801,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="29" t="s">
+      <c r="A50" s="28" t="s">
         <v>103</v>
       </c>
       <c r="B50">
@@ -4681,7 +4812,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="29" t="s">
+      <c r="A51" s="28" t="s">
         <v>104</v>
       </c>
       <c r="B51">
@@ -4692,7 +4823,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="29" t="s">
+      <c r="A52" s="28" t="s">
         <v>105</v>
       </c>
       <c r="B52">
@@ -4703,7 +4834,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="29" t="s">
+      <c r="A53" s="28" t="s">
         <v>106</v>
       </c>
       <c r="B53">
@@ -4714,16 +4845,16 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="29"/>
+      <c r="A56" s="28"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="29"/>
+      <c r="A57" s="28"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="29"/>
+      <c r="A58" s="28"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="29"/>
+      <c r="A59" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -5012,15 +5143,15 @@
       <c r="C17" t="s">
         <v>174</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10" t="s">
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -5043,7 +5174,7 @@
       <c r="C19">
         <v>0</v>
       </c>
-      <c r="I19" s="13"/>
+      <c r="I19" s="12"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
@@ -5085,7 +5216,7 @@
       <c r="C23">
         <v>2</v>
       </c>
-      <c r="I23" s="13"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
@@ -5116,7 +5247,7 @@
       <c r="C26">
         <v>1</v>
       </c>
-      <c r="E26" s="13"/>
+      <c r="E26" s="12"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -5160,15 +5291,15 @@
       <c r="D1" t="s">
         <v>108</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10" t="s">
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -5426,15 +5557,15 @@
       <c r="C17" t="s">
         <v>174</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10" t="s">
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -5457,7 +5588,7 @@
       <c r="C19">
         <v>0</v>
       </c>
-      <c r="I19" s="13"/>
+      <c r="I19" s="12"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
@@ -5502,7 +5633,7 @@
       <c r="C23">
         <v>1</v>
       </c>
-      <c r="I23" s="13"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
@@ -5536,7 +5667,7 @@
       <c r="C26">
         <v>0</v>
       </c>
-      <c r="E26" s="13"/>
+      <c r="E26" s="12"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -5584,15 +5715,15 @@
       <c r="D1" t="s">
         <v>108</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10" t="s">
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -5853,15 +5984,15 @@
       <c r="C17" t="s">
         <v>174</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10" t="s">
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
